--- a/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
+++ b/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanAmbiente\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase2\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCFD8B-C114-4928-903B-B5791292AB1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BC60CD-8F24-46F7-A882-1F77E0548FA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2109,6 +2109,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2181,9 +2196,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2195,18 +2207,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2560,214 +2560,214 @@
   <sheetData>
     <row r="5" spans="2:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="40" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="55" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
     </row>
     <row r="13" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
     </row>
     <row r="14" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
     </row>
     <row r="15" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="55" t="s">
+      <c r="M15" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
     </row>
     <row r="17" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -2897,6 +2897,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:H8"/>
+    <mergeCell ref="I6:M8"/>
+    <mergeCell ref="B9:H10"/>
+    <mergeCell ref="I9:M14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:M17"/>
     <mergeCell ref="C11:H11"/>
@@ -2907,17 +2918,6 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="K15:K17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="B6:H8"/>
-    <mergeCell ref="I6:M8"/>
-    <mergeCell ref="B9:H10"/>
-    <mergeCell ref="I9:M14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2950,50 +2950,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="40" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -3056,18 +3056,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="79"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="64" t="s">
@@ -3345,11 +3345,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="B4:H6"/>
     <mergeCell ref="I4:M6"/>
     <mergeCell ref="I7:M10"/>
@@ -3358,12 +3358,12 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="G11:G13"/>
     <mergeCell ref="H11:H13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
     <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3398,50 +3398,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="40" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -3504,18 +3504,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="79"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="64" t="s">
@@ -3793,14 +3793,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -3813,6 +3805,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3823,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF69378-5C9E-410A-9F24-6A5C43D39D40}">
   <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:H9"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3844,50 +3844,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="40" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -3950,18 +3950,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="79"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="64" t="s">
@@ -4239,14 +4239,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -4259,6 +4251,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4269,7 +4269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E65285-BD75-4307-9A81-36792F3C310E}">
   <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:H9"/>
     </sheetView>
   </sheetViews>
@@ -4290,50 +4290,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="40" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -4396,18 +4396,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="79"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="64" t="s">
@@ -4685,14 +4685,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -4705,6 +4697,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4736,50 +4736,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="40" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -4842,18 +4842,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="79"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="64" t="s">
@@ -5131,14 +5131,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -5151,6 +5143,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5183,50 +5183,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="40" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -5289,18 +5289,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="79"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="64" t="s">
@@ -5578,14 +5578,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -5598,6 +5590,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5629,50 +5629,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="40" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -5735,18 +5735,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="79"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="64" t="s">
@@ -5972,14 +5972,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -5992,6 +5984,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
+++ b/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanAmbiente\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase2\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BC60CD-8F24-46F7-A882-1F77E0548FA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE99D36-73F0-4085-8AEC-5494E25FC802}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="CU5" sheetId="7" r:id="rId6"/>
     <sheet name="CU6" sheetId="8" r:id="rId7"/>
     <sheet name="CU11" sheetId="9" r:id="rId8"/>
+    <sheet name="CU4" sheetId="10" r:id="rId9"/>
+    <sheet name="CU1" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,6 +40,32 @@
   </authors>
   <commentList>
     <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">De acuerdo a los procesos  identificados en la 
+MDF
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Claudia Insuasty</author>
+  </authors>
+  <commentList>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{0B66682C-3B61-43D0-BB24-9FB701EB419B}">
       <text>
         <r>
           <rPr>
@@ -239,8 +267,34 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Claudia Insuasty</author>
+  </authors>
+  <commentList>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{44DDD929-CB83-4EE9-B109-8AB74F0B9D4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">De acuerdo a los procesos  identificados en la 
+MDF
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="209">
   <si>
     <t>EJECUCION DE PRUEBAS</t>
   </si>
@@ -1627,6 +1681,163 @@
   </si>
   <si>
     <t>Se espera que el aplicativo internamente dentro del codigo realice la encriptacion del texto obtenido en el campo password, se realizara por el metodo SHA1 o el metodo de encryptacion MD5</t>
+  </si>
+  <si>
+    <t>CU4</t>
+  </si>
+  <si>
+    <t>Crear estacion (Tabla Parametro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crear Estacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario ingresará a la pantalla crear Estacion, el sistema deberá ingresar y cargar todo el contenido en un tiempo mínimo de 5 segundo. </t>
+  </si>
+  <si>
+    <t>Se dará click en el botón nuevo Estacion, se ingresará a la pantalla de crear Estacion y se tomará el tiempo en que el aplicativo da respuesta. Este tiempo debe ser mínimo 5 segundos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se espera que el aplicativo al ingresar en la pantalla de crear Estacion, el tiempo de repuesta sea inferior y como mínimo a 5 segundo, para ingresar y cargar su contenido. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id carga automáticamente tipo int
+Se ingresa nombre campo Estacion: Valores numéricos [0-9] (El sistema no debe permitir el ingreso)
+Se ingresan valores aleatorios tipo int mayor a 50 caracteres. (El sistema debe mostrar mensaje de validación) 
+Se ingresa nombre campo observacion: Esto es una prueba tipo String. 
+Se ingresan valores [a-z]  tipo String mayor a 50 caracteres. (El sistema debe mostrar mensaje de validación)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se probaran los metodos agregar Estacion
+</t>
+  </si>
+  <si>
+    <t>El ejecutar el test de la prueba unitari, debera mostrar en pantalla, la consultarealizada para la Estacion creada anteriormente</t>
+  </si>
+  <si>
+    <t>Se diligencias los campos nombre, nombre corto estacion,serial,observación, localización, latitud,longitud, elevación, el usuario oprime el botón guardar, el sistema deberá guardar la información en base de datos y mostrar mensaje de confirmación en pantalla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario ingresará a la pantalla crear Estacion, el sistema cargará Id de la nueva Estacion a crear automáticamente, el usuario diligencia los campos nombre, nombre corto estacion,serial,observación, localización, latitud,longitud, elevación, los campos solo recibirán máximo 50 caracteres. </t>
+  </si>
+  <si>
+    <t>El usuario ingresará a la pantalla crear Estacion, el sistema cargará Id de la nueva Estacion a crear automáticamente, el usuario diligencia los campos nombre, nombre corto estacion,serial,observación, localización, latitud,longitud, elevación, los campos solo recibirán máximo 50 caracteres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id carga automáticamente tipo int
+Se ingresa nombre campo Estacion:Chapinero  
+Se ingresan valores [a-z] tipo String min 50 caracteres.
+Se ingresa nombre campo nombre corto estacion: Chap
+Se ingresan valores [a-z] tipo String min 50 caracteres.
+Se ingresa nombre campo nombre corto: Chap
+Se ingresan valores [a-z] tipo String min 50 caracteres.
+Se ingresa campo serial: chapinero
+Se ingresan valores [a-z] tipo String min 50 caracteres.
+Se ingresa campo ,observación: Esto es una prueba.
+Se ingresan valores [a-z] tipo String min 50 caracteres.
+Se ingresa campo ,observación: Esto es una prueba.
+Se ingresan valores [a-z] tipo String min 50 caracteres.
+Se ingresa campo , localización: Ubicada al centro de la ciudad.
+Se ingresan valores [a-z] tipo String min 50 caracteres.
+Se ingresa campo , latitud: Ubicada al centro de la ciudad.
+Se ingresan valores [a-z] tipo String min 50 caracteres.
+Se ingresa campo , longitud: Ubicada al centro de la ciudad.
+Se ingresan valores [a-z] tipo String min 50 caracteres.
+Se ingresa campo , elevacion: Ubicada al centro de la ciudad.
+Se ingresan valores [a-z] tipo String min 50 caracteres.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campos nombre, nombre corto estacion,serial,observación, localización, latitud,longitud, elevació
+</t>
+  </si>
+  <si>
+    <t>Se diligencia le campo nombre: Estacion estacion
+nombre, nombre corto estacion,serial,observación, localización, latitud,longitud, elevació.</t>
+  </si>
+  <si>
+    <r>
+      <t>agregarEstacion(id_estacion, nombre_estacion, nombre_corto_estacion, serial_estacion, organización_estacion, categoría_estacion, base_tiempo_estacion, observación_estacion, región_estacion, ciudad_estacion, localización_estacion, latitud_estacion, longitud_estacion, elevación_estacion, gmt_estacion, protocolo_estacion), se escribira prueba unitaria donde:
+id_estacion:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+nombre_estacion:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estacion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Prueba
+nombre_corto_estacion:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Est.Prue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>consultarEstacion(id_estacion, nombre_estacion, nombre_corto_estacion, serial_estacion, ciudad_estacion, protocolo_estacion), se escribira prueba unitaria donde:
+id_estacion:1 
+se debera cargar la informacion asociada a este id</t>
+  </si>
+  <si>
+    <t>Conectar con estacion</t>
+  </si>
+  <si>
+    <t>CU1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conectar con estacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario ingresará a la pantalla conectar con estacion, el sistema deberá ingresar y cargar todo el contenido en un tiempo mínimo de 5 segundo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> se ingresará a la pantalla de conectar con estacion y se tomará el tiempo en que el aplicativo da respuesta. Este tiempo debe ser mínimo 5 segundos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se espera que el aplicativo al ingresar en la pantalla de conectar con estacion, el tiempo de repuesta sea inferior y como mínimo a 5 segundo, para ingresar y cargar su contenido. </t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2112,6 +2323,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2255,6 +2472,123 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2560,214 +2894,214 @@
   <sheetData>
     <row r="5" spans="2:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="45" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="55"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="31" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
     </row>
     <row r="14" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
     </row>
     <row r="17" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -2924,12 +3258,379 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC56C1B5-61AC-414C-89B9-0AFDA14EAE32}">
+  <dimension ref="C3:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="49"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
+    </row>
+    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+    </row>
+    <row r="7" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="71"/>
+    </row>
+    <row r="8" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
+    </row>
+    <row r="9" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="74"/>
+    </row>
+    <row r="10" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="81"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="61"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+    </row>
+    <row r="14" spans="3:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:N10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:M21"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B14" sqref="B14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2950,190 +3651,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="67" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
     </row>
     <row r="9" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
     </row>
     <row r="10" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="66" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="2:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="2:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -3376,7 +4077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B16777-4111-4BC8-A284-35AF9BE8FDAD}">
   <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:H9"/>
     </sheetView>
   </sheetViews>
@@ -3398,190 +4099,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="67" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
     </row>
     <row r="9" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
     </row>
     <row r="10" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="66" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="2:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -3823,8 +4524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF69378-5C9E-410A-9F24-6A5C43D39D40}">
   <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3844,190 +4545,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="67" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
     </row>
     <row r="10" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="66" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="2:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
@@ -4290,190 +4991,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="67" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
     </row>
     <row r="10" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="66" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="2:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -4715,7 +5416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B83024-9021-43CC-86C0-CBE472185E4B}">
   <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:H9"/>
     </sheetView>
   </sheetViews>
@@ -4736,190 +5437,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="67" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
     </row>
     <row r="9" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
     </row>
     <row r="10" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="66" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="2:13" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -5183,190 +5884,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="67" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
     </row>
     <row r="10" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="66" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="2:13" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -5608,8 +6309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ED4A39-E2C2-40A4-A2EF-E325FC0589EC}">
   <dimension ref="B3:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A7" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5629,192 +6330,192 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="67" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="66" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-    </row>
-    <row r="14" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+    </row>
+    <row r="14" spans="2:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
@@ -5996,4 +6697,429 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEA60B5-646D-4C1D-80DD-E023A21A3604}">
+  <dimension ref="B3:M21"/>
+  <sheetViews>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="12" width="5.42578125" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="96"/>
+    </row>
+    <row r="5" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="99"/>
+    </row>
+    <row r="6" spans="2:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="102"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="108"/>
+    </row>
+    <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="111"/>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="111"/>
+    </row>
+    <row r="10" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="115"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="115"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="114"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+    </row>
+    <row r="13" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+    </row>
+    <row r="14" spans="2:13" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="2:13" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="2:13" ht="323.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17" spans="2:13" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="2:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="2:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="119" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="2:13" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+    </row>
+    <row r="21" spans="2:13" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
+++ b/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanAmbiente\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase2\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313E5DE-EDCC-4B2E-8566-A201AAA4B057}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BBA3E4-32FF-4D6F-80DE-736B80B8DA72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -2371,7 +2371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2473,6 +2473,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2545,9 +2560,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2560,18 +2572,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2620,6 +2620,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2725,13 +2734,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3043,214 +3046,214 @@
   <sheetData>
     <row r="5" spans="2:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="44" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="57"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="59" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
     </row>
     <row r="12" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
     </row>
     <row r="13" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
     </row>
     <row r="15" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="59" t="s">
+      <c r="J15" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="59" t="s">
+      <c r="L15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="59" t="s">
+      <c r="M15" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
     </row>
     <row r="17" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -3380,6 +3383,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:H8"/>
+    <mergeCell ref="I6:M8"/>
+    <mergeCell ref="B9:H10"/>
+    <mergeCell ref="I9:M14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:M17"/>
     <mergeCell ref="C11:H11"/>
@@ -3390,17 +3404,6 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="K15:K17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="B6:H8"/>
-    <mergeCell ref="I6:M8"/>
-    <mergeCell ref="B9:H10"/>
-    <mergeCell ref="I9:M14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3411,18 +3414,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC56C1B5-61AC-414C-89B9-0AFDA14EAE32}">
   <dimension ref="C3:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="4.42578125" customWidth="1"/>
@@ -3433,50 +3436,50 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="44" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="46"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="31" t="s">
@@ -3539,18 +3542,18 @@
         <v>12</v>
       </c>
       <c r="D10" s="83"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="58"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="68" t="s">
@@ -3644,7 +3647,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="3:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>24</v>
       </c>
@@ -3657,7 +3660,7 @@
       <c r="F15" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="6" t="s">
         <v>211</v>
       </c>
       <c r="H15" s="15" t="s">
@@ -3670,7 +3673,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="3:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" ht="127.5" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
@@ -3683,7 +3686,7 @@
       <c r="F16" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="6" t="s">
         <v>214</v>
       </c>
       <c r="H16" s="11" t="s">
@@ -3709,7 +3712,7 @@
       <c r="F17" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="6" t="s">
         <v>220</v>
       </c>
       <c r="H17" s="25" t="s">
@@ -3735,7 +3738,7 @@
       <c r="F18" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="6" t="s">
         <v>223</v>
       </c>
       <c r="H18" s="25" t="s">
@@ -3750,14 +3753,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="J4:N6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:N10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -3770,6 +3765,14 @@
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="M11:M13"/>
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:N10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3802,50 +3805,50 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="44" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="46"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="33" t="s">
@@ -3908,18 +3911,18 @@
         <v>12</v>
       </c>
       <c r="D10" s="83"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="58"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="68" t="s">
@@ -4223,18 +4226,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
     <mergeCell ref="C4:I6"/>
     <mergeCell ref="J4:N6"/>
     <mergeCell ref="D7:I7"/>
@@ -4243,6 +4234,18 @@
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="H10:I10"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4253,7 +4256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4275,50 +4278,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="44" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -4381,18 +4384,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="83"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="68" t="s">
@@ -4670,13 +4673,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="B4:H6"/>
     <mergeCell ref="I4:M6"/>
     <mergeCell ref="I7:M10"/>
@@ -4685,11 +4686,13 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4723,50 +4726,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="44" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -4829,18 +4832,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="83"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="68" t="s">
@@ -5118,14 +5121,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -5138,6 +5133,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5169,50 +5172,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="44" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -5275,18 +5278,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="83"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="68" t="s">
@@ -5564,14 +5567,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -5584,6 +5579,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5594,7 +5597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E65285-BD75-4307-9A81-36792F3C310E}">
   <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -5615,50 +5618,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="44" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -5721,18 +5724,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="83"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="68" t="s">
@@ -6010,14 +6013,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -6030,6 +6025,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6061,50 +6064,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="44" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -6167,18 +6170,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="83"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="68" t="s">
@@ -6456,14 +6459,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -6476,6 +6471,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6508,50 +6511,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="44" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -6614,18 +6617,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="83"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="68" t="s">
@@ -6903,14 +6906,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -6923,6 +6918,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6933,8 +6936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ED4A39-E2C2-40A4-A2EF-E325FC0589EC}">
   <dimension ref="B3:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H8"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6954,50 +6957,50 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="44" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -7060,18 +7063,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="83"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="68" t="s">
@@ -7152,7 +7155,7 @@
       <c r="E14" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="122" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -7178,7 +7181,7 @@
       <c r="E15" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="122" t="s">
         <v>173</v>
       </c>
       <c r="G15" s="15" t="s">
@@ -7204,7 +7207,7 @@
       <c r="E16" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="122" t="s">
         <v>173</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -7230,7 +7233,7 @@
       <c r="E17" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="122" t="s">
         <v>177</v>
       </c>
       <c r="G17" s="25" t="s">
@@ -7256,7 +7259,7 @@
       <c r="E18" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="122" t="s">
         <v>178</v>
       </c>
       <c r="G18" s="25" t="s">
@@ -7282,7 +7285,7 @@
       <c r="E19" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="122" t="s">
         <v>178</v>
       </c>
       <c r="G19" s="25" t="s">
@@ -7297,14 +7300,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -7317,6 +7312,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7348,190 +7351,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="95" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="97"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="100"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="2:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="92"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="103"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="106"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="107" t="s">
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="109"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="112"/>
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="112"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="115"/>
     </row>
     <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="112"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="115"/>
     </row>
     <row r="10" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="116"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="115"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="118"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="119" t="s">
+      <c r="H11" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="119" t="s">
+      <c r="I11" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="119" t="s">
+      <c r="J11" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="119" t="s">
+      <c r="K11" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="119" t="s">
+      <c r="L11" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="119" t="s">
+      <c r="M11" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
     </row>
     <row r="13" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
     </row>
     <row r="14" spans="2:13" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
@@ -7569,7 +7572,7 @@
       <c r="D15" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="87" t="s">
         <v>198</v>
       </c>
       <c r="F15" s="26" t="s">
@@ -7589,7 +7592,7 @@
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="85"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="26"/>
       <c r="G16" s="34"/>
       <c r="H16" s="27"/>
@@ -7661,7 +7664,7 @@
       <c r="D19" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="87" t="s">
         <v>201</v>
       </c>
       <c r="F19" s="26" t="s">
@@ -7681,7 +7684,7 @@
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="85"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="26"/>
       <c r="G20" s="25"/>
       <c r="H20" s="27"/>
@@ -7719,12 +7722,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B4:H6"/>
@@ -7741,6 +7738,12 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
+++ b/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanAmbiente\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase2\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BBA3E4-32FF-4D6F-80DE-736B80B8DA72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC66454-9227-49CB-AC8E-21DC30F28E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="268">
   <si>
     <t>EJECUCION DE PRUEBAS</t>
   </si>
@@ -1979,6 +1979,108 @@
   </si>
   <si>
     <t>Se espera que el aplicativo soporte una cantidad maxima de 100 usuarios conectandose simultaneamente al aplicativo</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>El aplicativo efectivamente ingresa a la pantalla de crear region en un tiempo minimo de 5 segundo.</t>
+  </si>
+  <si>
+    <t>Al  momento de llenar los campos nombre y descripcion con minimo 50 caracteres, se sigue el curso normal</t>
+  </si>
+  <si>
+    <t>Al momento de ingresar una cantidad superior a 50 caracteres en los campos nombre y descripcion, el aplicativo muestra mensaje de validacion y no permite seguir con el curso normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se espera que el aplicativo almacene la información diligenciada correctamente en base de datos, se muestren los mensajes de confirmación en pantalla. </t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Cuando se llenan los campos nombre y descripcion, y se da en la opcion guardar el aplicativo no muestra mensaje de confirmacion.</t>
+  </si>
+  <si>
+    <t>Crear region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se selecciona la opcion editar </t>
+  </si>
+  <si>
+    <t>Boton Editar</t>
+  </si>
+  <si>
+    <t>Se espera que al momento de seleccionar la opcion editar, el aplicativo debera enviar al usuario a la pantalla de editar y habilitar los campos nombre y descripcion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se selecciona la opcion editar, se modifica el campo nombre por </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Andina </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> y descripcion por </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prueba dos</t>
+    </r>
+  </si>
+  <si>
+    <t>El aplicativo permite editar y actualizar los campos nombre y descripcion de la region creada</t>
+  </si>
+  <si>
+    <t>ITERACION
+OK (pasa la prueba)
+NOK (No pasa la prueba)</t>
+  </si>
+  <si>
+    <t>Al momento de ingresar al aplicativo y a la pantalla de crear region ingresa con tiempo minimo de respuesta de 5 segundos</t>
+  </si>
+  <si>
+    <t>Al momento de ingresar una cantidad de 50 caracteres en los campos nombre ciudad y observacion, el aplicativo permite seguir el curso normal</t>
+  </si>
+  <si>
+    <t>Cuando se ingresan valores numericos en el campo nombre ciudad el aplicativo permite seguir el curso normal, cuando no deberia de hacerlo</t>
+  </si>
+  <si>
+    <t>Verificar que el aplicativo permita seleccionar las regiones creadas anteriormente.</t>
+  </si>
+  <si>
+    <t>Se selecciona la opcion Region, se escoge la opcione al cargarse Andina</t>
+  </si>
+  <si>
+    <t>Se requiere seleccionar region creada anteriormente</t>
+  </si>
+  <si>
+    <t>Al momento de guardar la informacion, y presionar el boton guadar, no se muestra mensaje de confirmacion</t>
+  </si>
+  <si>
+    <t>Al momento de seleccionar la lista de regiones el aplicativo las carga correctamente</t>
+  </si>
+  <si>
+    <t>Opcion Region</t>
   </si>
 </sst>
 </file>
@@ -2371,7 +2473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2473,9 +2575,99 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2485,93 +2677,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2620,6 +2725,111 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2629,113 +2839,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3046,214 +3151,214 @@
   <sheetData>
     <row r="5" spans="2:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="49" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="54"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="57"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="35" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
     </row>
     <row r="12" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
     </row>
     <row r="13" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
     </row>
     <row r="14" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
     </row>
     <row r="15" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="35" t="s">
+      <c r="L15" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="M15" s="60" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
     </row>
     <row r="17" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -3383,17 +3488,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:H8"/>
-    <mergeCell ref="I6:M8"/>
-    <mergeCell ref="B9:H10"/>
-    <mergeCell ref="I9:M14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:M17"/>
     <mergeCell ref="C11:H11"/>
@@ -3404,6 +3498,17 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="K15:K17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="B6:H8"/>
+    <mergeCell ref="I6:M8"/>
+    <mergeCell ref="B9:H10"/>
+    <mergeCell ref="I9:M14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3436,190 +3541,190 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="49" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="51"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="71" t="s">
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
     </row>
     <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="76"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="77"/>
     </row>
     <row r="9" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="76"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="77"/>
     </row>
     <row r="10" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
     </row>
     <row r="14" spans="3:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
@@ -3699,7 +3804,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="3:14" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" ht="76.5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>24</v>
       </c>
@@ -3750,6 +3855,479 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:N10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD7BD3-B24E-47ED-8D02-DE5556966992}">
+  <dimension ref="C3:N22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
+    </row>
+    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="53"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
+    </row>
+    <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="77"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="77"/>
+    </row>
+    <row r="10" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="84"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+    </row>
+    <row r="14" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="3:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="3:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="3:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+    </row>
+    <row r="18" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="3:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+    </row>
+    <row r="20" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="3:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3779,485 +4357,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD7BD3-B24E-47ED-8D02-DE5556966992}">
-  <dimension ref="C3:N22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="51"/>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-    </row>
-    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
-    </row>
-    <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="80" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="76"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="76"/>
-    </row>
-    <row r="10" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="63"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-    </row>
-    <row r="14" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-    </row>
-    <row r="15" spans="3:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-    </row>
-    <row r="16" spans="3:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-    </row>
-    <row r="17" spans="3:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-    </row>
-    <row r="18" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-    </row>
-    <row r="19" spans="3:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-    </row>
-    <row r="20" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-    </row>
-    <row r="21" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-    </row>
-    <row r="22" spans="3:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="J4:N6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:N10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:M21"/>
+  <dimension ref="B3:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,194 +4383,194 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="2:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
     </row>
     <row r="14" spans="2:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>49</v>
@@ -4482,16 +4587,20 @@
       <c r="G14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="H14" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" s="123" t="s">
+        <v>245</v>
+      </c>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
     </row>
     <row r="15" spans="2:13" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>49</v>
@@ -4508,16 +4617,20 @@
       <c r="G15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="H15" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="I15" s="123" t="s">
+        <v>245</v>
+      </c>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
     </row>
     <row r="16" spans="2:13" ht="242.25" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>49</v>
@@ -4534,21 +4647,25 @@
       <c r="G16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="H16" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I16" s="123" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
     </row>
     <row r="17" spans="2:13" ht="180" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="18" t="s">
@@ -4558,40 +4675,48 @@
         <v>38</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="2:13" ht="102" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I17" s="123" t="s">
+        <v>250</v>
+      </c>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+    </row>
+    <row r="18" spans="2:13" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>56</v>
+        <v>252</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>256</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+        <v>255</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I18" s="123" t="s">
+        <v>245</v>
+      </c>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
     </row>
     <row r="19" spans="2:13" ht="102" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
@@ -4601,23 +4726,23 @@
         <v>49</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
     </row>
     <row r="20" spans="2:13" ht="102" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
@@ -4627,25 +4752,25 @@
         <v>49</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+    </row>
+    <row r="21" spans="2:13" ht="102" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>42</v>
       </c>
@@ -4653,31 +4778,59 @@
         <v>49</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+    </row>
+    <row r="22" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E22" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
     <mergeCell ref="B4:H6"/>
     <mergeCell ref="I4:M6"/>
     <mergeCell ref="I7:M10"/>
@@ -4686,13 +4839,11 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4702,10 +4853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B16777-4111-4BC8-A284-35AF9BE8FDAD}">
-  <dimension ref="B3:M21"/>
+  <dimension ref="B3:M22"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4716,8 +4867,8 @@
     <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" customWidth="1"/>
     <col min="12" max="12" width="5.140625" customWidth="1"/>
@@ -4726,194 +4877,194 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="71" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="8" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-    </row>
-    <row r="14" spans="2:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+    </row>
+    <row r="14" spans="2:13" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>61</v>
@@ -4930,16 +5081,20 @@
       <c r="G14" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="H14" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I14" s="123" t="s">
+        <v>245</v>
+      </c>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
     </row>
     <row r="15" spans="2:13" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>61</v>
@@ -4956,16 +5111,20 @@
       <c r="G15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="H15" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I15" s="123" t="s">
+        <v>245</v>
+      </c>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
     </row>
     <row r="16" spans="2:13" ht="293.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>24</v>
+      <c r="B16" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>61</v>
@@ -4982,21 +5141,25 @@
       <c r="G16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="H16" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I16" s="123" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
     </row>
     <row r="17" spans="2:13" ht="180" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="18" t="s">
@@ -5008,40 +5171,48 @@
       <c r="G17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="2:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I17" s="123" t="s">
+        <v>250</v>
+      </c>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+    </row>
+    <row r="18" spans="2:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>50</v>
+        <v>267</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="2:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I18" s="123" t="s">
+        <v>245</v>
+      </c>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+    </row>
+    <row r="19" spans="2:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>42</v>
       </c>
@@ -5049,25 +5220,25 @@
         <v>61</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="2:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+    </row>
+    <row r="20" spans="2:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>42</v>
       </c>
@@ -5075,25 +5246,25 @@
         <v>61</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="2:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+    </row>
+    <row r="21" spans="2:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>42</v>
       </c>
@@ -5101,26 +5272,60 @@
         <v>61</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+    </row>
+    <row r="22" spans="2:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E22" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -5133,14 +5338,6 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5172,190 +5369,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="71" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="8" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
     </row>
     <row r="14" spans="2:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
@@ -5567,6 +5764,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -5579,14 +5784,6 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5597,7 +5794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E65285-BD75-4307-9A81-36792F3C310E}">
   <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -5618,190 +5815,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="71" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
     </row>
     <row r="14" spans="2:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -6013,6 +6210,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -6025,14 +6230,6 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6064,190 +6261,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="71" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
     </row>
     <row r="14" spans="2:13" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -6459,6 +6656,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -6471,14 +6676,6 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6511,190 +6708,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="71" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="8" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
     </row>
     <row r="14" spans="2:13" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -6906,6 +7103,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -6918,14 +7123,6 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6957,190 +7154,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="71" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="8" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
     </row>
     <row r="14" spans="2:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -7155,7 +7352,7 @@
       <c r="E14" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="122" t="s">
+      <c r="F14" s="35" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -7181,7 +7378,7 @@
       <c r="E15" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="122" t="s">
+      <c r="F15" s="35" t="s">
         <v>173</v>
       </c>
       <c r="G15" s="15" t="s">
@@ -7207,7 +7404,7 @@
       <c r="E16" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="122" t="s">
+      <c r="F16" s="35" t="s">
         <v>173</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -7233,7 +7430,7 @@
       <c r="E17" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="F17" s="122" t="s">
+      <c r="F17" s="35" t="s">
         <v>177</v>
       </c>
       <c r="G17" s="25" t="s">
@@ -7259,7 +7456,7 @@
       <c r="E18" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="122" t="s">
+      <c r="F18" s="35" t="s">
         <v>178</v>
       </c>
       <c r="G18" s="25" t="s">
@@ -7285,7 +7482,7 @@
       <c r="E19" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="122" t="s">
+      <c r="F19" s="35" t="s">
         <v>178</v>
       </c>
       <c r="G19" s="25" t="s">
@@ -7300,6 +7497,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -7312,14 +7517,6 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7351,190 +7548,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="98" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="98"/>
     </row>
     <row r="5" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="92"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="103"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="101"/>
     </row>
     <row r="6" spans="2:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="95"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="106"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="104"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110" t="s">
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="112"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="110"/>
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="115"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="113"/>
     </row>
     <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="115"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="113"/>
     </row>
     <row r="10" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="121"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="119"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="118"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="116"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="84" t="s">
+      <c r="H11" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="84" t="s">
+      <c r="J11" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="84" t="s">
+      <c r="L11" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="84" t="s">
+      <c r="M11" s="120" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
     </row>
     <row r="13" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
     </row>
     <row r="14" spans="2:13" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
@@ -7572,7 +7769,7 @@
       <c r="D15" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="85" t="s">
         <v>198</v>
       </c>
       <c r="F15" s="26" t="s">
@@ -7592,7 +7789,7 @@
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="88"/>
+      <c r="E16" s="86"/>
       <c r="F16" s="26"/>
       <c r="G16" s="34"/>
       <c r="H16" s="27"/>
@@ -7664,7 +7861,7 @@
       <c r="D19" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="85" t="s">
         <v>201</v>
       </c>
       <c r="F19" s="26" t="s">
@@ -7684,7 +7881,7 @@
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="88"/>
+      <c r="E20" s="86"/>
       <c r="F20" s="26"/>
       <c r="G20" s="25"/>
       <c r="H20" s="27"/>
@@ -7722,6 +7919,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B4:H6"/>
@@ -7738,12 +7941,6 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
+++ b/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanAmbiente\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase2\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC66454-9227-49CB-AC8E-21DC30F28E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CC82E2-EE84-4DAB-9C05-449A2C88259E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="268">
   <si>
     <t>EJECUCION DE PRUEBAS</t>
   </si>
@@ -491,84 +491,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> min 50 caracteres.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Id carga automáticamente tipo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Se ingresa nombre campo región: Valores numéricos [0-9] (El sistema no debe permitir el ingreso)
-Se ingresan valores aleatorios tipo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mayor a 50 caracteres. (El sistema debe mostrar mensaje de validación) 
-Se ingresa nombre campo descripción: Esto es una prueba tipo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">String. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Se ingresan valores [a-z]  tipo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mayor a 50 caracteres. (El sistema debe mostrar mensaje de validación)
 </t>
     </r>
   </si>
@@ -830,14 +752,6 @@
 Se ingresan valores [a-z] tipo String min 50 caracteres. 
 Se ingresa nombre campo descripción:Valle del cauca tipo String. 
 Se ingresan valores [a-z] tipo String min 50 caracteres.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id carga automáticamente tipo int
-Se ingresa nombre campo Ciudad: Valores numéricos [0-9] (El sistema no debe permitir el ingreso)
-Se ingresan valores aleatorios tipo int [0-9] mayor a 50 caracteres. (El sistema debe mostrar mensaje de validación) 
-Se ingresa nombre campo descripción: Esto es una prueba tipo String. 
-Se ingresan valores [a-z]  tipo String mayor a 50 caracteres. (El sistema debe mostrar mensaje de validación)
 </t>
   </si>
   <si>
@@ -2081,6 +1995,90 @@
   </si>
   <si>
     <t>Opcion Region</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Id carga automáticamente tipo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Se ingresan valores aleatorios tipo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mayor a 50 caracteres. (El sistema debe mostrar mensaje de validación) 
+Se ingresa nombre campo descripción: Esto es una prueba tipo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">String. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Se ingresan valores [a-z]  tipo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mayor a 50 caracteres. (El sistema debe mostrar mensaje de validación)
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Id carga automáticamente tipo int
+Se ingresan valores aleatorios tipo int [0-9] mayor a 50 caracteres. (El sistema debe mostrar mensaje de validación) 
+Se ingresa nombre campo descripción: Esto es una prueba tipo String. 
+Se ingresan valores [a-z]  tipo String mayor a 50 caracteres. (El sistema debe mostrar mensaje de validación)
+</t>
   </si>
 </sst>
 </file>
@@ -2578,6 +2576,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2650,9 +2666,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2665,18 +2678,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2725,6 +2726,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2829,18 +2839,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3151,214 +3149,214 @@
   <sheetData>
     <row r="5" spans="2:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="45" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="60" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="60" t="s">
+      <c r="H15" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="60" t="s">
+      <c r="J15" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="60" t="s">
+      <c r="K15" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="60" t="s">
+      <c r="M15" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
     </row>
     <row r="17" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -3488,6 +3486,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:H8"/>
+    <mergeCell ref="I6:M8"/>
+    <mergeCell ref="B9:H10"/>
+    <mergeCell ref="I9:M14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:M17"/>
     <mergeCell ref="C11:H11"/>
@@ -3498,17 +3507,6 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="K15:K17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="B6:H8"/>
-    <mergeCell ref="I6:M8"/>
-    <mergeCell ref="B9:H10"/>
-    <mergeCell ref="I9:M14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3541,209 +3539,209 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="45" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
     </row>
     <row r="7" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="72" t="s">
+      <c r="D7" s="79" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="75"/>
     </row>
     <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="81" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
+      <c r="D8" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="78"/>
     </row>
     <row r="9" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
+      <c r="D9" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="78"/>
     </row>
     <row r="10" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="59"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="65"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="69" t="s">
+      <c r="I11" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="69" t="s">
+      <c r="M11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="69" t="s">
+      <c r="N11" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
     </row>
     <row r="14" spans="3:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>207</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="9"/>
@@ -3757,19 +3755,19 @@
         <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E15" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="H15" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>212</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9"/>
@@ -3783,19 +3781,19 @@
         <v>24</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E16" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>215</v>
-      </c>
       <c r="G16" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9"/>
@@ -3809,19 +3807,19 @@
         <v>24</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E17" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>217</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>219</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="9"/>
@@ -3832,22 +3830,22 @@
     </row>
     <row r="18" spans="3:14" ht="76.5" x14ac:dyDescent="0.25">
       <c r="C18" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E18" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="H18" s="25" t="s">
         <v>222</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>224</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="9"/>
@@ -3858,14 +3856,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="J4:N6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:N10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -3878,6 +3868,14 @@
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="M11:M13"/>
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:N10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3910,209 +3908,209 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="45" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="72" t="s">
+      <c r="D7" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="75"/>
     </row>
     <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="81" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
+      <c r="D8" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="78"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
+      <c r="D9" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="78"/>
     </row>
     <row r="10" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="59"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="65"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="69" t="s">
+      <c r="I11" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="69" t="s">
+      <c r="M11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="69" t="s">
+      <c r="N11" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
     </row>
     <row r="14" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -4123,22 +4121,22 @@
     </row>
     <row r="15" spans="3:14" ht="90" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="I15" s="27"/>
       <c r="J15" s="28"/>
@@ -4149,22 +4147,22 @@
     </row>
     <row r="16" spans="3:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="I16" s="27"/>
       <c r="J16" s="28"/>
@@ -4175,22 +4173,22 @@
     </row>
     <row r="17" spans="3:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E17" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
@@ -4201,22 +4199,22 @@
     </row>
     <row r="18" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E18" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="28"/>
@@ -4227,22 +4225,22 @@
     </row>
     <row r="19" spans="3:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="28"/>
@@ -4253,22 +4251,22 @@
     </row>
     <row r="20" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="E20" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="G20" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
@@ -4279,22 +4277,22 @@
     </row>
     <row r="21" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E21" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="28"/>
@@ -4305,22 +4303,22 @@
     </row>
     <row r="22" spans="3:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E22" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="28"/>
@@ -4331,6 +4329,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:N10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -4343,14 +4349,6 @@
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="M11:M13"/>
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="J4:N6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:N10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4362,7 +4360,7 @@
   <dimension ref="B3:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,197 +4381,197 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="77"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
     </row>
     <row r="9" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="77"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="69" t="s">
+      <c r="H11" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="69" t="s">
+      <c r="M11" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
     </row>
     <row r="13" spans="2:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="2:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>23</v>
@@ -4588,22 +4586,24 @@
         <v>26</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="I14" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
+        <v>244</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="2:13" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>29</v>
@@ -4612,225 +4612,231 @@
         <v>30</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" spans="2:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="I15" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-    </row>
-    <row r="16" spans="2:13" ht="242.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="H16" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I16" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="I16" s="123" t="s">
-        <v>250</v>
-      </c>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
+      <c r="J16" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="2:13" ht="180" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="I17" s="123" t="s">
-        <v>250</v>
-      </c>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
+      <c r="I17" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="2:13" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="G18" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="I18" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
+      <c r="I18" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="2:13" ht="102" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="E19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="2:13" ht="102" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="21" spans="2:13" ht="102" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
     </row>
     <row r="22" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="B4:H6"/>
     <mergeCell ref="I4:M6"/>
     <mergeCell ref="I7:M10"/>
@@ -4839,11 +4845,13 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4855,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B16777-4111-4BC8-A284-35AF9BE8FDAD}">
   <dimension ref="B3:M22"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4877,455 +4885,455 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="72" t="s">
+      <c r="C7" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="77"/>
+      <c r="C8" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
     </row>
     <row r="9" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="77"/>
+      <c r="C9" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="69" t="s">
+      <c r="H11" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="69" t="s">
+      <c r="M11" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
     </row>
     <row r="13" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="2:13" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="I14" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
+        <v>257</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="2:13" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" spans="2:13" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E16" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I15" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-    </row>
-    <row r="16" spans="2:13" ht="293.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="H16" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="I16" s="123" t="s">
-        <v>250</v>
-      </c>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
+        <v>259</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="2:13" ht="180" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="I17" s="123" t="s">
-        <v>250</v>
-      </c>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
+        <v>263</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="2:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="I18" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
+      <c r="I18" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="2:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>62</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="2:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="21" spans="2:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
     </row>
     <row r="22" spans="2:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -5338,6 +5346,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5369,209 +5385,209 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
     </row>
     <row r="7" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="72" t="s">
+      <c r="C7" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="77"/>
+      <c r="C8" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="77"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="69" t="s">
+      <c r="H11" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="69" t="s">
+      <c r="M11" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
     </row>
     <row r="13" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="2:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
@@ -5585,19 +5601,19 @@
         <v>24</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>95</v>
-      </c>
       <c r="F15" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
@@ -5611,19 +5627,19 @@
         <v>24</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
@@ -5637,19 +5653,19 @@
         <v>24</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -5660,22 +5676,22 @@
     </row>
     <row r="18" spans="2:13" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -5686,22 +5702,22 @@
     </row>
     <row r="19" spans="2:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>84</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -5712,22 +5728,22 @@
     </row>
     <row r="20" spans="2:13" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
@@ -5738,22 +5754,22 @@
     </row>
     <row r="21" spans="2:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
@@ -5764,14 +5780,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -5784,6 +5792,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5815,209 +5831,209 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
     </row>
     <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="72" t="s">
+      <c r="C7" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="77"/>
+      <c r="C8" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="77"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="69" t="s">
+      <c r="H11" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="69" t="s">
+      <c r="M11" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
     </row>
     <row r="13" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="2:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
@@ -6031,19 +6047,19 @@
         <v>24</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
@@ -6057,19 +6073,19 @@
         <v>24</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>118</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
@@ -6083,19 +6099,19 @@
         <v>24</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -6106,22 +6122,22 @@
     </row>
     <row r="18" spans="2:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>105</v>
-      </c>
       <c r="F18" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -6132,22 +6148,22 @@
     </row>
     <row r="19" spans="2:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -6158,22 +6174,22 @@
     </row>
     <row r="20" spans="2:13" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
@@ -6184,22 +6200,22 @@
     </row>
     <row r="21" spans="2:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
@@ -6210,14 +6226,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -6230,6 +6238,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6261,209 +6277,209 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="72" t="s">
+      <c r="C7" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="77"/>
+      <c r="C8" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
     </row>
     <row r="9" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="77"/>
+      <c r="C9" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="69" t="s">
+      <c r="H11" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="69" t="s">
+      <c r="M11" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
     </row>
     <row r="13" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="2:13" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
@@ -6477,19 +6493,19 @@
         <v>24</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
@@ -6503,19 +6519,19 @@
         <v>24</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
@@ -6529,19 +6545,19 @@
         <v>24</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -6552,22 +6568,22 @@
     </row>
     <row r="18" spans="2:13" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -6578,22 +6594,22 @@
     </row>
     <row r="19" spans="2:13" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -6604,22 +6620,22 @@
     </row>
     <row r="20" spans="2:13" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
@@ -6630,22 +6646,22 @@
     </row>
     <row r="21" spans="2:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
@@ -6656,14 +6672,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -6676,6 +6684,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6708,209 +6724,209 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="72" t="s">
+      <c r="C7" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="77"/>
+      <c r="C8" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="77"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="69" t="s">
+      <c r="H11" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="69" t="s">
+      <c r="M11" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
     </row>
     <row r="13" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="2:13" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>144</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>146</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
@@ -6924,19 +6940,19 @@
         <v>24</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
@@ -6950,19 +6966,19 @@
         <v>24</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
@@ -6976,19 +6992,19 @@
         <v>24</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -6999,22 +7015,22 @@
     </row>
     <row r="18" spans="2:13" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -7025,22 +7041,22 @@
     </row>
     <row r="19" spans="2:13" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -7051,22 +7067,22 @@
     </row>
     <row r="20" spans="2:13" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
@@ -7077,22 +7093,22 @@
     </row>
     <row r="21" spans="2:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
@@ -7103,14 +7119,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -7123,6 +7131,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7154,209 +7170,209 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="72" t="s">
+      <c r="C7" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="77"/>
+      <c r="C8" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="77"/>
+      <c r="C9" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="69" t="s">
+      <c r="H11" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="69" t="s">
+      <c r="M11" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
     </row>
     <row r="13" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="2:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
@@ -7370,19 +7386,19 @@
         <v>24</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>172</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
@@ -7396,19 +7412,19 @@
         <v>24</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
@@ -7422,19 +7438,19 @@
         <v>24</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -7445,22 +7461,22 @@
     </row>
     <row r="18" spans="2:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E18" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>182</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -7471,22 +7487,22 @@
     </row>
     <row r="19" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>185</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -7497,14 +7513,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -7517,6 +7525,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7548,209 +7564,209 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="96" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="98"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="101"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="2:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="104"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="105" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="108" t="s">
+      <c r="C7" s="109" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="110"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="114"/>
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="117" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="113"/>
+      <c r="C8" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="117"/>
     </row>
     <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="113"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="117"/>
     </row>
     <row r="10" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="117"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="116"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="120"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="120" t="s">
+      <c r="E11" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="120" t="s">
+      <c r="F11" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="120" t="s">
+      <c r="G11" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="120" t="s">
+      <c r="H11" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="120" t="s">
+      <c r="J11" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="120" t="s">
+      <c r="K11" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="120" t="s">
+      <c r="L11" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="120" t="s">
+      <c r="M11" s="86" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
     </row>
     <row r="13" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
     </row>
     <row r="14" spans="2:13" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>188</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
@@ -7764,19 +7780,19 @@
         <v>24</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D15" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="85" t="s">
-        <v>198</v>
-      </c>
       <c r="F15" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
@@ -7789,7 +7805,7 @@
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="86"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="26"/>
       <c r="G16" s="34"/>
       <c r="H16" s="27"/>
@@ -7804,19 +7820,19 @@
         <v>24</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D17" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>199</v>
-      </c>
       <c r="G17" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -7830,19 +7846,19 @@
         <v>24</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -7853,22 +7869,22 @@
     </row>
     <row r="19" spans="2:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" s="85" t="s">
-        <v>201</v>
+        <v>191</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>199</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -7881,7 +7897,7 @@
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="86"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="26"/>
       <c r="G20" s="25"/>
       <c r="H20" s="27"/>
@@ -7893,22 +7909,22 @@
     </row>
     <row r="21" spans="2:13" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
@@ -7919,12 +7935,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B4:H6"/>
@@ -7941,6 +7951,12 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
+++ b/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanAmbiente\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase2\Casos de Prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\usuarios\juanitapatino\Desktop\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase2\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CC82E2-EE84-4DAB-9C05-449A2C88259E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D32AF6-AA0D-4694-B0FB-05A4FA2802F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,16 @@
     <sheet name="CU1" sheetId="11" r:id="rId10"/>
     <sheet name="Pruebas de carga y Stress" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -321,7 +327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="277">
   <si>
     <t>EJECUCION DE PRUEBAS</t>
   </si>
@@ -392,16 +398,7 @@
     <t>Datos de prueba</t>
   </si>
   <si>
-    <t xml:space="preserve">El usuario ingresará a la pantalla crear región, el sistema deberá ingresar y cargar todo el contenido en un tiempo mínimo de 5 segundo. </t>
-  </si>
-  <si>
     <t>Eficiencia</t>
-  </si>
-  <si>
-    <t>Se dará click en el botón nueva región, se ingresará a la pantalla de crear región y se tomará el tiempo en que el aplicativo da respuesta. Este tiempo debe ser mínimo 5 segundos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se espera que el aplicativo al ingresar en la pantalla de crear región, el tiempo de repuesta sea inferior y como mínimo a 5 segundo, para ingresar y cargar su contenido. </t>
   </si>
   <si>
     <t>Tiempo de respuesta</t>
@@ -730,15 +727,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario ingresará a la pantalla crear Ciudad, el sistema deberá ingresar y cargar todo el contenido en un tiempo mínimo de 5 segundo. </t>
-  </si>
-  <si>
-    <t>Se dará click en el botón nueva Ciudad, se ingresará a la pantalla de crear Ciudad y se tomará el tiempo en que el aplicativo da respuesta. Este tiempo debe ser mínimo 5 segundos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se espera que el aplicativo al ingresar en la pantalla de crear Ciudad, el tiempo de repuesta sea inferior y como mínimo a 5 segundo, para ingresar y cargar su contenido. </t>
   </si>
   <si>
     <t xml:space="preserve">El usuario ingresará a la pantalla crear Ciudad, el sistema cargará Id de la nueva Ciudad a crear automáticamente, el usuario diligencia los campos nombre, descripción, los campos solo recibirán máximo 50 caracteres. </t>
@@ -1904,9 +1892,6 @@
     <t>El aplicativo efectivamente ingresa a la pantalla de crear region en un tiempo minimo de 5 segundo.</t>
   </si>
   <si>
-    <t>Al  momento de llenar los campos nombre y descripcion con minimo 50 caracteres, se sigue el curso normal</t>
-  </si>
-  <si>
     <t>Al momento de ingresar una cantidad superior a 50 caracteres en los campos nombre y descripcion, el aplicativo muestra mensaje de validacion y no permite seguir con el curso normal</t>
   </si>
   <si>
@@ -1970,9 +1955,6 @@
 NOK (No pasa la prueba)</t>
   </si>
   <si>
-    <t>Al momento de ingresar al aplicativo y a la pantalla de crear region ingresa con tiempo minimo de respuesta de 5 segundos</t>
-  </si>
-  <si>
     <t>Al momento de ingresar una cantidad de 50 caracteres en los campos nombre ciudad y observacion, el aplicativo permite seguir el curso normal</t>
   </si>
   <si>
@@ -2080,12 +2062,63 @@
 Se ingresan valores [a-z]  tipo String mayor a 50 caracteres. (El sistema debe mostrar mensaje de validación)
 </t>
   </si>
+  <si>
+    <t>Tipo de Falla</t>
+  </si>
+  <si>
+    <t>TECNICO</t>
+  </si>
+  <si>
+    <t>CONFIG</t>
+  </si>
+  <si>
+    <t>USABILIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhon Jairo </t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>SOLO SE REALIZO 1 ITERACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario ingresará a la pantalla crear región, el sistema deberá ingresar y cargar todo el contenido en un tiempo maximo de 5 segundo. </t>
+  </si>
+  <si>
+    <t>Se dará click en el botón nueva región, se ingresará a la pantalla de crear región y se tomará el tiempo en que el aplicativo da respuesta. Este tiempo debe ser maximo 5 segundos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se espera que el aplicativo al ingresar en la pantalla de crear región, el tiempo de repuesta sea inferior y como maximo a 5 segundo, para ingresar y cargar su contenido. </t>
+  </si>
+  <si>
+    <t>Al  momento de llenar los campos nombre y descripcion con maximo 50 caracteres, se sigue el curso normal</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>SE REALIZARON 2 ITERACIONES Y QUEDA APROBADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario ingresará a la pantalla crear Ciudad, el sistema deberá ingresar y cargar todo el contenido en un tiempo maximo de 5 segundo. </t>
+  </si>
+  <si>
+    <t>Se dará click en el botón nueva Ciudad, se ingresará a la pantalla de crear Ciudad y se tomará el tiempo en que el aplicativo da respuesta. Este tiempo debe ser maximo 5 segundos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se espera que el aplicativo al ingresar en la pantalla de crear Ciudad, el tiempo de repuesta sea inferior y como maximo a 5 segundo, para ingresar y cargar su contenido. </t>
+  </si>
+  <si>
+    <t>Al momento de ingresar al aplicativo y a la pantalla de crear region ingresa con tiempo maximo de respuesta de 5 segundos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2136,8 +2169,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2147,6 +2188,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2471,7 +2524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2579,9 +2632,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2591,93 +2740,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2726,6 +2788,111 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2735,110 +2902,68 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2848,6 +2973,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFC09200"/>
     </mruColors>
   </colors>
@@ -3149,214 +3275,214 @@
   <sheetData>
     <row r="5" spans="2:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="57"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="37" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
     </row>
     <row r="12" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
     </row>
     <row r="13" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
     </row>
     <row r="14" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
     </row>
     <row r="15" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="37" t="s">
+      <c r="H15" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="37" t="s">
+      <c r="M15" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
     </row>
     <row r="17" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -3486,17 +3612,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:H8"/>
-    <mergeCell ref="I6:M8"/>
-    <mergeCell ref="B9:H10"/>
-    <mergeCell ref="I9:M14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:M17"/>
     <mergeCell ref="C11:H11"/>
@@ -3507,6 +3622,17 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="K15:K17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="B6:H8"/>
+    <mergeCell ref="I6:M8"/>
+    <mergeCell ref="B9:H10"/>
+    <mergeCell ref="I9:M14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3539,209 +3665,209 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="51" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="59"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="79" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="75"/>
+      <c r="D7" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="78"/>
     </row>
     <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="78"/>
+      <c r="D8" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="81"/>
     </row>
     <row r="9" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="78"/>
+      <c r="D9" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="81"/>
     </row>
     <row r="10" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="70" t="s">
+      <c r="I11" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="70" t="s">
+      <c r="K11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="70" t="s">
+      <c r="L11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="70" t="s">
+      <c r="M11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="70" t="s">
+      <c r="N11" s="73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
     </row>
     <row r="14" spans="3:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="H14" s="15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="9"/>
@@ -3752,22 +3878,22 @@
     </row>
     <row r="15" spans="3:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="H15" s="15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9"/>
@@ -3778,22 +3904,22 @@
     </row>
     <row r="16" spans="3:14" ht="127.5" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9"/>
@@ -3804,22 +3930,22 @@
     </row>
     <row r="17" spans="3:14" ht="76.5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="9"/>
@@ -3830,22 +3956,22 @@
     </row>
     <row r="18" spans="3:14" ht="76.5" x14ac:dyDescent="0.25">
       <c r="C18" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="9"/>
@@ -3853,6 +3979,479 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:N10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD7BD3-B24E-47ED-8D02-DE5556966992}">
+  <dimension ref="C3:N22"/>
+  <sheetViews>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
+    </row>
+    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="78"/>
+    </row>
+    <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="81"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="81"/>
+    </row>
+    <row r="10" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="88"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+    </row>
+    <row r="14" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="3:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="3:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="3:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+    </row>
+    <row r="18" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="3:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+    </row>
+    <row r="20" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="3:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3882,485 +4481,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD7BD3-B24E-47ED-8D02-DE5556966992}">
-  <dimension ref="C3:N22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56"/>
-    </row>
-    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="59"/>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="75"/>
-    </row>
-    <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="78"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="78"/>
-    </row>
-    <row r="10" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-    </row>
-    <row r="14" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-    </row>
-    <row r="15" spans="3:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-    </row>
-    <row r="16" spans="3:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-    </row>
-    <row r="17" spans="3:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-    </row>
-    <row r="18" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-    </row>
-    <row r="19" spans="3:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-    </row>
-    <row r="20" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-    </row>
-    <row r="21" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-    </row>
-    <row r="22" spans="3:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="J4:N6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:N10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:M22"/>
+  <dimension ref="B3:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4372,378 +4498,464 @@
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="51" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-    </row>
-    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
-    </row>
-    <row r="6" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
-    </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="54"/>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
+    </row>
+    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
-    </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="78"/>
+    </row>
+    <row r="8" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
-    </row>
-    <row r="9" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="81"/>
+    </row>
+    <row r="9" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
-    </row>
-    <row r="10" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="81"/>
+    </row>
+    <row r="10" spans="2:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
+      <c r="C10" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="70" t="s">
+      <c r="G10" s="140">
+        <v>43778</v>
+      </c>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="P11" s="64"/>
+    </row>
+    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+    </row>
+    <row r="13" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="130" t="s">
+        <v>261</v>
+      </c>
+      <c r="J13" s="130" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" s="130" t="s">
+        <v>263</v>
+      </c>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+    </row>
+    <row r="14" spans="2:16" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="143" t="s">
+        <v>266</v>
+      </c>
+      <c r="P14" s="143"/>
+    </row>
+    <row r="15" spans="2:16" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I15" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="J15" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="K15" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="L15" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="143" t="s">
+        <v>266</v>
+      </c>
+      <c r="P15" s="143"/>
+    </row>
+    <row r="16" spans="2:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I16" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="M16" s="36"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="143" t="s">
+        <v>266</v>
+      </c>
+      <c r="P16" s="143"/>
+    </row>
+    <row r="17" spans="2:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-    </row>
-    <row r="13" spans="2:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-    </row>
-    <row r="14" spans="2:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="G17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="I17" s="36"/>
+      <c r="J17" s="142" t="s">
+        <v>271</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="144" t="s">
+        <v>241</v>
+      </c>
+      <c r="M17" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="N17" s="141"/>
+      <c r="O17" s="143" t="s">
+        <v>272</v>
+      </c>
+      <c r="P17" s="143"/>
+    </row>
+    <row r="18" spans="2:16" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="I14" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="15" spans="2:13" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="E18" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="I15" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="16" spans="2:13" ht="210" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="G18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I18" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="J18" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="K18" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="L18" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="143" t="s">
         <v>266</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-    </row>
-    <row r="17" spans="2:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="P18" s="143"/>
+    </row>
+    <row r="19" spans="2:16" ht="102" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="C19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-    </row>
-    <row r="18" spans="2:13" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-    </row>
-    <row r="19" spans="2:13" ht="102" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="36"/>
@@ -4751,25 +4963,28 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
-    </row>
-    <row r="20" spans="2:13" ht="102" x14ac:dyDescent="0.25">
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="2:16" ht="102" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="36"/>
@@ -4777,25 +4992,28 @@
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
-    </row>
-    <row r="21" spans="2:13" ht="102" x14ac:dyDescent="0.25">
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="2:16" ht="102" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="E21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="G21" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="36"/>
@@ -4803,25 +5021,28 @@
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
       <c r="M21" s="36"/>
-    </row>
-    <row r="22" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="2:16" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="36"/>
@@ -4829,29 +5050,37 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="25">
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="L4:P6"/>
+    <mergeCell ref="L7:P10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B4:K6"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4861,10 +5090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B16777-4111-4BC8-A284-35AF9BE8FDAD}">
-  <dimension ref="B3:M22"/>
+  <dimension ref="B3:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4876,465 +5105,576 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="51" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-    </row>
-    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
-    </row>
-    <row r="6" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="54"/>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
-    </row>
-    <row r="8" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="78"/>
+    </row>
+    <row r="8" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
-    </row>
-    <row r="9" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="81"/>
+    </row>
+    <row r="9" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
-    </row>
-    <row r="10" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="81"/>
+    </row>
+    <row r="10" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="70" t="s">
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="P11" s="64"/>
+    </row>
+    <row r="12" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+    </row>
+    <row r="13" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="130" t="s">
+        <v>261</v>
+      </c>
+      <c r="J13" s="130" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" s="130" t="s">
+        <v>263</v>
+      </c>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+    </row>
+    <row r="14" spans="2:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="143" t="s">
+        <v>266</v>
+      </c>
+      <c r="P14" s="143"/>
+    </row>
+    <row r="15" spans="2:16" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I15" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="J15" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="K15" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="L15" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="143" t="s">
+        <v>266</v>
+      </c>
+      <c r="P15" s="143"/>
+    </row>
+    <row r="16" spans="2:16" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I16" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" s="144" t="s">
+        <v>241</v>
+      </c>
+      <c r="M16" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="N16" s="36"/>
+      <c r="O16" s="143" t="s">
+        <v>272</v>
+      </c>
+      <c r="P16" s="143"/>
+    </row>
+    <row r="17" spans="2:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-    </row>
-    <row r="13" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-    </row>
-    <row r="14" spans="2:13" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="G17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I17" s="147"/>
+      <c r="J17" s="142" t="s">
+        <v>271</v>
+      </c>
+      <c r="K17" s="147"/>
+      <c r="L17" s="144" t="s">
+        <v>241</v>
+      </c>
+      <c r="M17" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="N17" s="36"/>
+      <c r="O17" s="143" t="s">
+        <v>272</v>
+      </c>
+      <c r="P17" s="143"/>
+    </row>
+    <row r="18" spans="2:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I18" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="J18" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="K18" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="L18" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="143" t="s">
+        <v>266</v>
+      </c>
+      <c r="P18" s="143"/>
+    </row>
+    <row r="19" spans="2:16" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="15" spans="2:13" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="16" spans="2:13" ht="229.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-    </row>
-    <row r="17" spans="2:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-    </row>
-    <row r="18" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-    </row>
-    <row r="19" spans="2:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
-    </row>
-    <row r="20" spans="2:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="2:16" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
-    </row>
-    <row r="21" spans="2:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="2:16" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="E21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
       <c r="L21" s="36"/>
       <c r="M21" s="36"/>
-    </row>
-    <row r="22" spans="2:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="2:16" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="M11:M13"/>
+  <mergeCells count="25">
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="L4:P6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="L7:P10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -5342,18 +5682,11 @@
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="O11:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5385,209 +5718,209 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="51" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="C7" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78"/>
     </row>
     <row r="8" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
+      <c r="C8" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
     </row>
     <row r="10" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="70" t="s">
+      <c r="H11" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="70" t="s">
+      <c r="K11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="70" t="s">
+      <c r="L11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="70" t="s">
+      <c r="M11" s="73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
     </row>
     <row r="13" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>27</v>
-      </c>
       <c r="G14" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
@@ -5598,22 +5931,22 @@
     </row>
     <row r="15" spans="2:13" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
@@ -5624,22 +5957,22 @@
     </row>
     <row r="16" spans="2:13" ht="255" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
@@ -5650,22 +5983,22 @@
     </row>
     <row r="17" spans="2:13" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -5676,22 +6009,22 @@
     </row>
     <row r="18" spans="2:13" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -5702,22 +6035,22 @@
     </row>
     <row r="19" spans="2:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>86</v>
-      </c>
       <c r="F19" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -5728,22 +6061,22 @@
     </row>
     <row r="20" spans="2:13" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>44</v>
-      </c>
       <c r="E20" s="18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
@@ -5754,22 +6087,22 @@
     </row>
     <row r="21" spans="2:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
@@ -5780,6 +6113,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -5792,14 +6133,6 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5831,209 +6164,209 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="51" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="C7" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78"/>
     </row>
     <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
+      <c r="C8" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
     </row>
     <row r="10" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="70" t="s">
+      <c r="H11" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="70" t="s">
+      <c r="K11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="70" t="s">
+      <c r="L11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="70" t="s">
+      <c r="M11" s="73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
     </row>
     <row r="13" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>27</v>
-      </c>
       <c r="G14" s="15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
@@ -6044,22 +6377,22 @@
     </row>
     <row r="15" spans="2:13" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
@@ -6070,22 +6403,22 @@
     </row>
     <row r="16" spans="2:13" ht="300.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
@@ -6096,22 +6429,22 @@
     </row>
     <row r="17" spans="2:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -6122,22 +6455,22 @@
     </row>
     <row r="18" spans="2:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -6148,22 +6481,22 @@
     </row>
     <row r="19" spans="2:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -6174,22 +6507,22 @@
     </row>
     <row r="20" spans="2:13" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="E20" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
@@ -6200,22 +6533,22 @@
     </row>
     <row r="21" spans="2:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
@@ -6226,6 +6559,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -6238,14 +6579,6 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6277,209 +6610,209 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="51" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="C7" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
+      <c r="C8" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
+      <c r="C9" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
     </row>
     <row r="10" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="70" t="s">
+      <c r="H11" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="70" t="s">
+      <c r="K11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="70" t="s">
+      <c r="L11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="70" t="s">
+      <c r="M11" s="73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
     </row>
     <row r="13" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>27</v>
-      </c>
       <c r="G14" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
@@ -6490,22 +6823,22 @@
     </row>
     <row r="15" spans="2:13" ht="280.5" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
@@ -6516,22 +6849,22 @@
     </row>
     <row r="16" spans="2:13" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>129</v>
-      </c>
       <c r="E16" s="18" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
@@ -6542,22 +6875,22 @@
     </row>
     <row r="17" spans="2:13" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -6568,22 +6901,22 @@
     </row>
     <row r="18" spans="2:13" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -6594,22 +6927,22 @@
     </row>
     <row r="19" spans="2:13" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -6620,22 +6953,22 @@
     </row>
     <row r="20" spans="2:13" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>44</v>
-      </c>
       <c r="E20" s="18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
@@ -6646,22 +6979,22 @@
     </row>
     <row r="21" spans="2:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
@@ -6672,6 +7005,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -6684,14 +7025,6 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6724,209 +7057,209 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="51" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="C7" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78"/>
     </row>
     <row r="8" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
+      <c r="C8" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
     </row>
     <row r="10" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="70" t="s">
+      <c r="H11" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="70" t="s">
+      <c r="K11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="70" t="s">
+      <c r="L11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="70" t="s">
+      <c r="M11" s="73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
     </row>
     <row r="13" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>27</v>
-      </c>
       <c r="G14" s="15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
@@ -6937,22 +7270,22 @@
     </row>
     <row r="15" spans="2:13" ht="280.5" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
@@ -6963,22 +7296,22 @@
     </row>
     <row r="16" spans="2:13" ht="382.5" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>148</v>
-      </c>
       <c r="F16" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
@@ -6989,22 +7322,22 @@
     </row>
     <row r="17" spans="2:13" ht="270.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -7015,22 +7348,22 @@
     </row>
     <row r="18" spans="2:13" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -7041,22 +7374,22 @@
     </row>
     <row r="19" spans="2:13" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -7067,22 +7400,22 @@
     </row>
     <row r="20" spans="2:13" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>44</v>
-      </c>
       <c r="E20" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
@@ -7093,22 +7426,22 @@
     </row>
     <row r="21" spans="2:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
@@ -7119,6 +7452,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -7131,14 +7472,6 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7170,209 +7503,209 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="51" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="C7" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78"/>
     </row>
     <row r="8" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
+      <c r="C8" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
+      <c r="C9" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="70" t="s">
+      <c r="H11" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="70" t="s">
+      <c r="K11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="70" t="s">
+      <c r="L11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="70" t="s">
+      <c r="M11" s="73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
     </row>
     <row r="13" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>27</v>
-      </c>
       <c r="G14" s="15" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
@@ -7383,22 +7716,22 @@
     </row>
     <row r="15" spans="2:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
@@ -7409,22 +7742,22 @@
     </row>
     <row r="16" spans="2:13" ht="178.5" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
@@ -7435,22 +7768,22 @@
     </row>
     <row r="17" spans="2:13" ht="135" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>168</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>174</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -7461,22 +7794,22 @@
     </row>
     <row r="18" spans="2:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -7487,22 +7820,22 @@
     </row>
     <row r="19" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -7513,6 +7846,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -7525,14 +7866,6 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7614,7 +7947,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D7" s="110"/>
       <c r="E7" s="110"/>
@@ -7622,7 +7955,7 @@
       <c r="G7" s="110"/>
       <c r="H7" s="111"/>
       <c r="I7" s="112" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J7" s="113"/>
       <c r="K7" s="113"/>
@@ -7634,7 +7967,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="121" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D8" s="122"/>
       <c r="E8" s="122"/>
@@ -7684,89 +8017,89 @@
       <c r="M10" s="120"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="86" t="s">
+      <c r="H11" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="86" t="s">
+      <c r="J11" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="86" t="s">
+      <c r="K11" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="86" t="s">
+      <c r="L11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="86" t="s">
+      <c r="M11" s="124" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
     </row>
     <row r="13" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
     </row>
     <row r="14" spans="2:13" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>27</v>
-      </c>
       <c r="G14" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28"/>
@@ -7777,22 +8110,22 @@
     </row>
     <row r="15" spans="2:13" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E15" s="89" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
@@ -7817,22 +8150,22 @@
     </row>
     <row r="17" spans="2:13" ht="242.25" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -7843,22 +8176,22 @@
     </row>
     <row r="18" spans="2:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -7869,22 +8202,22 @@
     </row>
     <row r="19" spans="2:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E19" s="89" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -7909,22 +8242,22 @@
     </row>
     <row r="21" spans="2:13" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>186</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
@@ -7935,6 +8268,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B4:H6"/>
@@ -7951,12 +8290,6 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
+++ b/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\usuarios\juanitapatino\Desktop\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase2\Casos de Prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanAmbiente\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase2\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D32AF6-AA0D-4694-B0FB-05A4FA2802F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF09A73-6B02-4BEB-B581-6ECE32BA48CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="CU1" sheetId="11" r:id="rId10"/>
     <sheet name="Pruebas de carga y Stress" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1889,9 +1889,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>El aplicativo efectivamente ingresa a la pantalla de crear region en un tiempo minimo de 5 segundo.</t>
-  </si>
-  <si>
     <t>Al momento de ingresar una cantidad superior a 50 caracteres en los campos nombre y descripcion, el aplicativo muestra mensaje de validacion y no permite seguir con el curso normal</t>
   </si>
   <si>
@@ -2113,12 +2110,15 @@
   <si>
     <t>Al momento de ingresar al aplicativo y a la pantalla de crear region ingresa con tiempo maximo de respuesta de 5 segundos</t>
   </si>
+  <si>
+    <t>El aplicativo efectivamente ingresa a la pantalla de crear region en un tiempo maximo de 5 segundo.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2172,6 +2172,14 @@
     <font>
       <b/>
       <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2524,7 +2532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2641,6 +2649,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2713,9 +2769,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2728,16 +2781,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2749,6 +2793,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2758,15 +2805,42 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2785,8 +2859,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2893,77 +2973,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3275,214 +3286,214 @@
   <sheetData>
     <row r="5" spans="2:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="49" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="67"/>
     </row>
     <row r="7" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="54"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="70"/>
     </row>
     <row r="8" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="57"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="64" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
     </row>
     <row r="12" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
     </row>
     <row r="15" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="64" t="s">
+      <c r="I15" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="64" t="s">
+      <c r="J15" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="64" t="s">
+      <c r="K15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="64" t="s">
+      <c r="L15" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="64" t="s">
+      <c r="M15" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
     </row>
     <row r="17" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -3612,6 +3623,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:H8"/>
+    <mergeCell ref="I6:M8"/>
+    <mergeCell ref="B9:H10"/>
+    <mergeCell ref="I9:M14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:M17"/>
     <mergeCell ref="C11:H11"/>
@@ -3622,17 +3644,6 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="K15:K17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="B6:H8"/>
-    <mergeCell ref="I6:M8"/>
-    <mergeCell ref="B9:H10"/>
-    <mergeCell ref="I9:M14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3665,190 +3676,190 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="49" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="51"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="70"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="73"/>
     </row>
     <row r="7" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="76" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="78"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="91"/>
     </row>
     <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="81"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="93"/>
     </row>
     <row r="9" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="81"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93"/>
     </row>
     <row r="10" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="63"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="79"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="73" t="s">
+      <c r="J11" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="73" t="s">
+      <c r="K11" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="73" t="s">
+      <c r="L11" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="73" t="s">
+      <c r="M11" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="73" t="s">
+      <c r="N11" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
     </row>
     <row r="14" spans="3:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
@@ -3979,6 +3990,479 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:N10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD7BD3-B24E-47ED-8D02-DE5556966992}">
+  <dimension ref="C3:N22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="70"/>
+    </row>
+    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="73"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="91"/>
+    </row>
+    <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="93"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93"/>
+    </row>
+    <row r="10" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="94"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="79"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+    </row>
+    <row r="14" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="3:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="3:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="3:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+    </row>
+    <row r="18" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="3:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+    </row>
+    <row r="20" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="3:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -4008,485 +4492,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD7BD3-B24E-47ED-8D02-DE5556966992}">
-  <dimension ref="C3:N22"/>
-  <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="51"/>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-    </row>
-    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="78"/>
-    </row>
-    <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="81"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="81"/>
-    </row>
-    <row r="10" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="63"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-    </row>
-    <row r="14" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-    </row>
-    <row r="15" spans="3:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-    </row>
-    <row r="16" spans="3:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-    </row>
-    <row r="17" spans="3:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-    </row>
-    <row r="18" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-    </row>
-    <row r="19" spans="3:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-    </row>
-    <row r="20" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-    </row>
-    <row r="21" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-    </row>
-    <row r="22" spans="3:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="J4:N6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:N10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4510,230 +4521,230 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="49" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="54"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="78"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="91"/>
     </row>
     <row r="8" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="81"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="93"/>
     </row>
     <row r="9" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="81"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
     </row>
     <row r="10" spans="2:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="88" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="C10" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="140">
+      <c r="G10" s="101">
         <v>43778</v>
       </c>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="63"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="79"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="P11" s="51"/>
+    </row>
+    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+    </row>
+    <row r="13" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="64" t="s">
-        <v>265</v>
-      </c>
-      <c r="P11" s="64"/>
-    </row>
-    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-    </row>
-    <row r="13" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="130" t="s">
+      <c r="J13" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="J13" s="130" t="s">
+      <c r="K13" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="K13" s="130" t="s">
-        <v>263</v>
-      </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="2:16" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -4743,38 +4754,38 @@
         <v>45</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>267</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>268</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I14" s="131" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="J14" s="131" t="s">
+      <c r="J14" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="131" t="s">
+      <c r="K14" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="L14" s="145" t="s">
+      <c r="L14" s="48" t="s">
         <v>237</v>
       </c>
       <c r="M14" s="36"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="143" t="s">
-        <v>266</v>
-      </c>
-      <c r="P14" s="143"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="P14" s="84"/>
     </row>
     <row r="15" spans="2:16" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
@@ -4796,26 +4807,26 @@
         <v>33</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="I15" s="131" t="s">
+        <v>269</v>
+      </c>
+      <c r="I15" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="J15" s="131" t="s">
+      <c r="J15" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K15" s="131" t="s">
+      <c r="K15" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="L15" s="145" t="s">
+      <c r="L15" s="48" t="s">
         <v>237</v>
       </c>
       <c r="M15" s="36"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="143" t="s">
-        <v>266</v>
-      </c>
-      <c r="P15" s="143"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="P15" s="84"/>
     </row>
     <row r="16" spans="2:16" ht="210" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
@@ -4828,7 +4839,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
@@ -4837,26 +4848,26 @@
         <v>30</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="I16" s="131" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="J16" s="131" t="s">
+      <c r="J16" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K16" s="131" t="s">
+      <c r="K16" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="L16" s="145" t="s">
+      <c r="L16" s="48" t="s">
         <v>237</v>
       </c>
       <c r="M16" s="36"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="143" t="s">
-        <v>266</v>
-      </c>
-      <c r="P16" s="143"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="P16" s="84"/>
     </row>
     <row r="17" spans="2:16" ht="180" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
@@ -4875,68 +4886,68 @@
         <v>34</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="148" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="142" t="s">
+      <c r="M17" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="N17" s="45"/>
+      <c r="O17" s="84" t="s">
         <v>271</v>
       </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="M17" s="145" t="s">
-        <v>237</v>
-      </c>
-      <c r="N17" s="141"/>
-      <c r="O17" s="143" t="s">
-        <v>272</v>
-      </c>
-      <c r="P17" s="143"/>
+      <c r="P17" s="84"/>
     </row>
     <row r="18" spans="2:16" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>236</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="G18" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="I18" s="131" t="s">
+      <c r="I18" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="J18" s="131" t="s">
+      <c r="J18" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K18" s="131" t="s">
+      <c r="K18" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="L18" s="145" t="s">
+      <c r="L18" s="48" t="s">
         <v>237</v>
       </c>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
-      <c r="O18" s="143" t="s">
-        <v>266</v>
-      </c>
-      <c r="P18" s="143"/>
+      <c r="O18" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="P18" s="84"/>
     </row>
     <row r="19" spans="2:16" ht="102" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
@@ -5056,17 +5067,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="I11:K12"/>
     <mergeCell ref="O11:P13"/>
     <mergeCell ref="L4:P6"/>
     <mergeCell ref="L7:P10"/>
@@ -5081,6 +5081,17 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5092,8 +5103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B16777-4111-4BC8-A284-35AF9BE8FDAD}">
   <dimension ref="B3:P22"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5118,226 +5129,226 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="54"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="76" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="78"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="91"/>
     </row>
     <row r="8" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="81"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="93"/>
     </row>
     <row r="9" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="81"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
     </row>
     <row r="10" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="63"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="79"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="P11" s="51"/>
+    </row>
+    <row r="12" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+    </row>
+    <row r="13" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="64" t="s">
-        <v>265</v>
-      </c>
-      <c r="P11" s="64"/>
-    </row>
-    <row r="12" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-    </row>
-    <row r="13" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="130" t="s">
+      <c r="J13" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="J13" s="130" t="s">
+      <c r="K13" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="K13" s="130" t="s">
-        <v>263</v>
-      </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="2:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -5347,38 +5358,38 @@
         <v>57</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>273</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>274</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="I14" s="146" t="s">
+      <c r="I14" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="J14" s="146" t="s">
+      <c r="J14" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="146" t="s">
+      <c r="K14" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="L14" s="145" t="s">
+      <c r="L14" s="48" t="s">
         <v>237</v>
       </c>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
-      <c r="O14" s="143" t="s">
-        <v>266</v>
-      </c>
-      <c r="P14" s="143"/>
+      <c r="O14" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="P14" s="84"/>
     </row>
     <row r="15" spans="2:16" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
@@ -5400,26 +5411,26 @@
         <v>33</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="I15" s="146" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="J15" s="146" t="s">
+      <c r="J15" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="K15" s="146" t="s">
+      <c r="K15" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="L15" s="145" t="s">
+      <c r="L15" s="48" t="s">
         <v>237</v>
       </c>
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
-      <c r="O15" s="143" t="s">
-        <v>266</v>
-      </c>
-      <c r="P15" s="143"/>
+      <c r="O15" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="P15" s="84"/>
     </row>
     <row r="16" spans="2:16" ht="229.5" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
@@ -5432,7 +5443,7 @@
         <v>65</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
@@ -5441,28 +5452,28 @@
         <v>30</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="I16" s="146" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="J16" s="146" t="s">
+      <c r="J16" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="K16" s="146" t="s">
+      <c r="K16" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="L16" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="M16" s="145" t="s">
+      <c r="L16" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="M16" s="48" t="s">
         <v>237</v>
       </c>
       <c r="N16" s="36"/>
-      <c r="O16" s="143" t="s">
-        <v>272</v>
-      </c>
-      <c r="P16" s="143"/>
+      <c r="O16" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="P16" s="84"/>
     </row>
     <row r="17" spans="2:16" ht="180" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
@@ -5484,24 +5495,24 @@
         <v>37</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="I17" s="147"/>
-      <c r="J17" s="142" t="s">
+        <v>254</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="50"/>
+      <c r="L17" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="N17" s="36"/>
+      <c r="O17" s="84" t="s">
         <v>271</v>
       </c>
-      <c r="K17" s="147"/>
-      <c r="L17" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="M17" s="145" t="s">
-        <v>237</v>
-      </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="143" t="s">
-        <v>272</v>
-      </c>
-      <c r="P17" s="143"/>
+      <c r="P17" s="84"/>
     </row>
     <row r="18" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
@@ -5511,38 +5522,38 @@
         <v>56</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="I18" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="I18" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="J18" s="146" t="s">
+      <c r="J18" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="K18" s="146" t="s">
+      <c r="K18" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="L18" s="145" t="s">
+      <c r="L18" s="48" t="s">
         <v>237</v>
       </c>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
-      <c r="O18" s="143" t="s">
-        <v>266</v>
-      </c>
-      <c r="P18" s="143"/>
+      <c r="O18" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="P18" s="84"/>
     </row>
     <row r="19" spans="2:16" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
@@ -5662,11 +5673,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="B4:H6"/>
     <mergeCell ref="L4:P6"/>
     <mergeCell ref="C7:H7"/>
@@ -5675,18 +5693,11 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5718,190 +5729,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="76" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="78"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="93"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="93"/>
     </row>
     <row r="10" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="73" t="s">
+      <c r="J11" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="73" t="s">
+      <c r="K11" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="73" t="s">
+      <c r="L11" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="73" t="s">
+      <c r="M11" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
     </row>
     <row r="13" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
     </row>
     <row r="14" spans="2:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
@@ -6113,14 +6124,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -6133,6 +6136,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6164,190 +6175,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="76" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="78"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="93"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="93"/>
     </row>
     <row r="10" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="73" t="s">
+      <c r="J11" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="73" t="s">
+      <c r="K11" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="73" t="s">
+      <c r="L11" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="73" t="s">
+      <c r="M11" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
     </row>
     <row r="13" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
     </row>
     <row r="14" spans="2:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -6559,14 +6570,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -6579,6 +6582,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6610,190 +6621,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="76" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="78"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="93"/>
     </row>
     <row r="9" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="93"/>
     </row>
     <row r="10" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="73" t="s">
+      <c r="J11" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="73" t="s">
+      <c r="K11" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="73" t="s">
+      <c r="L11" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="73" t="s">
+      <c r="M11" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
     </row>
     <row r="13" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
     </row>
     <row r="14" spans="2:13" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -7005,14 +7016,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -7025,6 +7028,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7057,190 +7068,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="76" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="78"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="93"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="93"/>
     </row>
     <row r="10" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="73" t="s">
+      <c r="J11" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="73" t="s">
+      <c r="K11" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="73" t="s">
+      <c r="L11" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="73" t="s">
+      <c r="M11" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
     </row>
     <row r="13" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
     </row>
     <row r="14" spans="2:13" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -7452,14 +7463,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -7472,6 +7475,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7503,190 +7514,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="76" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="78"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="93"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="93"/>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="73" t="s">
+      <c r="J11" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="73" t="s">
+      <c r="K11" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="73" t="s">
+      <c r="L11" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="73" t="s">
+      <c r="M11" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
     </row>
     <row r="13" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
     </row>
     <row r="14" spans="2:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -7846,14 +7857,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="I4:M6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -7866,6 +7869,14 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:M6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7897,190 +7908,190 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="100" t="s">
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="102"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
     </row>
     <row r="5" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="94"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="129"/>
     </row>
     <row r="6" spans="2:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="108"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="132"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="133" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="114"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="138"/>
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="117"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="141"/>
     </row>
     <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="117"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="141"/>
     </row>
     <row r="10" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="120"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="144"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="124" t="s">
+      <c r="H11" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="124" t="s">
+      <c r="I11" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="124" t="s">
+      <c r="J11" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="124" t="s">
+      <c r="K11" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="124" t="s">
+      <c r="L11" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="124" t="s">
+      <c r="M11" s="110" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
     </row>
     <row r="13" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
     </row>
     <row r="14" spans="2:13" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
@@ -8118,7 +8129,7 @@
       <c r="D15" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="113" t="s">
         <v>190</v>
       </c>
       <c r="F15" s="26" t="s">
@@ -8138,7 +8149,7 @@
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="90"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="26"/>
       <c r="G16" s="34"/>
       <c r="H16" s="27"/>
@@ -8210,7 +8221,7 @@
       <c r="D19" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="113" t="s">
         <v>193</v>
       </c>
       <c r="F19" s="26" t="s">
@@ -8230,7 +8241,7 @@
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="90"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="26"/>
       <c r="G20" s="25"/>
       <c r="H20" s="27"/>
@@ -8268,12 +8279,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B4:H6"/>
@@ -8290,6 +8295,12 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
+++ b/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanAmbiente\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase2\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4739B6A-432C-4DB6-9908-EE9CDD090D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF7685C-F5DF-4EBD-A766-446E196209F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="CU1" sheetId="11" r:id="rId10"/>
     <sheet name="CU9" sheetId="13" r:id="rId11"/>
     <sheet name="CU11" sheetId="14" r:id="rId12"/>
-    <sheet name="Pruebas de carga y Stress" sheetId="12" r:id="rId13"/>
+    <sheet name="Pruebas de carga" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="313">
   <si>
     <t>EJECUCION DE PRUEBAS</t>
   </si>
@@ -1716,9 +1716,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Pruebas de carga y stress</t>
-  </si>
-  <si>
     <t xml:space="preserve"> crear Organización</t>
   </si>
   <si>
@@ -2154,6 +2151,113 @@
   </si>
   <si>
     <t xml:space="preserve">Crear base de tiempo </t>
+  </si>
+  <si>
+    <t>Se evidencia que el aplicativo soporta la peticion y consulta a la base de datos  de 100 usuarios al mismo tiempo</t>
+  </si>
+  <si>
+    <t>El sistema realiza la consulta y peticion a la base de datos de 100 usuario correctamente</t>
+  </si>
+  <si>
+    <t>El sistema soporta efectivamente la consulta a la base de datos de 100 usuarios conectados al mismo tiempo</t>
+  </si>
+  <si>
+    <t>El sistema logra con éxito la consulta a la base de datos de 100 usuarios conectados simultaneamente</t>
+  </si>
+  <si>
+    <t>Pruebas de carga</t>
+  </si>
+  <si>
+    <t>Jhon Jairo</t>
+  </si>
+  <si>
+    <t>El aplicativo efectivamente ingresa a la pantalla de Crear Alerta en un tiempo maximo de 5 segundo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando se llenan los campos del formulario y presionar el boton guardar, la informacion no esta quedando registrada en la base de datos </t>
+  </si>
+  <si>
+    <t>El aplicativo efectivamente ingresa a la pantalla de Crear categoria en un tiempo maximo de 5 segundo.</t>
+  </si>
+  <si>
+    <t>El aplicativo permite editar y actualizar los campos nombre y descripcion de la Categoria creada</t>
+  </si>
+  <si>
+    <t>Cuando se llenan los campos nombre y descripcion, y se da en la opcion guardar el aplicativo se muestra mensaje de confirmacion.</t>
+  </si>
+  <si>
+    <t>El aplicativo efectivamente ingresa a la pantalla de crear estacion en un tiempo maximo de 5 segundo.</t>
+  </si>
+  <si>
+    <t>El aplicativo permite editar y actualizar los campos nombre y descripcion de la estacion creada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crear rango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario ingresará a la pantalla crear rango, el sistema deberá ingresar y cargar todo el contenido en un tiempo mínimo de 5 segundo. </t>
+  </si>
+  <si>
+    <t>Se dará click en el botón nueva Alerta, se ingresará a la pantalla de crear rango y se tomará el tiempo en que el aplicativo da respuesta. Este tiempo debe ser mínimo 5 segundos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se espera que el aplicativo al ingresar en la pantalla de crear rango, el tiempo de repuesta sea inferior y como mínimo a 5 segundo, para ingresar y cargar su contenido. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario ingresará a la pantalla crear rango, el sistema cargará Id de la nueva Alerta a crear automáticamente, el usuario diligencia los campos nombre, descripción, los campos solo recibirán máximo 50 caracteres. </t>
+  </si>
+  <si>
+    <t>El usuario ingresará a la pantalla crear rango, el sistema cargará Id de la nueva Alerta a crear automáticamente, el usuario diligencia los campos nombre, descripción, los campos solo recibirán máximo 50 caracteres.</t>
+  </si>
+  <si>
+    <t>El aplicativo efectivamente ingresa a la pantalla de crear rango en un tiempo maximo de 5 segundo.</t>
+  </si>
+  <si>
+    <t>El aplicativo permite editar y actualizar los campos nombre y descripcion de la rango creado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crear base de tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario ingresará a la pantalla crear base de tiempo, el sistema deberá ingresar y cargar todo el contenido en un tiempo mínimo de 5 segundo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se espera que el aplicativo al ingresar en la pantalla de crear base de tiempo, el tiempo de repuesta sea inferior y como mínimo a 5 segundo, para ingresar y cargar su contenido. </t>
+  </si>
+  <si>
+    <t>El aplicativo efectivamente ingresa a la pantalla de crear base de tiempo en un tiempo maximo de 5 segundo.</t>
+  </si>
+  <si>
+    <t>Se dará click en el botón nueva base de tiempo, se ingresará a la pantalla de crear base de tiempo y se tomará el tiempo en que el aplicativo da respuesta. Este tiempo debe ser mínimo 5 segundos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario ingresará a la pantalla crear base de tiempo, el sistema cargará Id de la nueva base de tiempo a crear automáticamente, el usuario diligencia los campos nombre, descripción, los campos solo recibirán máximo 50 caracteres. </t>
+  </si>
+  <si>
+    <t>El usuario ingresará a la pantalla crear base de tiempo, el sistema cargará Id de la nueva base de tiempo a crear automáticamente, el usuario diligencia los campos nombre, descripción, los campos solo recibirán máximo 50 caracteres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id carga automáticamente tipo int
+Se ingresa nombre campo nombre: Alerta estacion tipo String. 
+Se ingresan valores [a-z] tipo String min 50 caracteres.
+Se ingresa nombre campo estacion: Decepaz tipo String. 
+Se ingresa nombre campo observacion: Esto es una prueba tipo String. 
+Se ingresan valores [a-z] tipo String min 50 caracteres.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id carga automáticamente tipo int
+Se ingresa nombre campo nombre: Valores numéricos [0-9] (El sistema no debe permitir el ingreso)
+Se ingresan valores aleatorios tipo int mayor a 50 caracteres. (El sistema debe mostrar mensaje de validación) 
+Se ingresa nombre campo descripción: Esto es una prueba tipo String. 
+Se ingresan valores [a-z]  tipo String mayor a 50 caracteres. (El sistema debe mostrar mensaje de validación)
+</t>
+  </si>
+  <si>
+    <t>El aplicativo efectivamente ingresa a la pantalla de Crear Organizacion en un tiempo maximo de 5 segundo.</t>
+  </si>
+  <si>
+    <t>El aplicativo permite editar y actualizar los campos nombre y descripcion de la organizacion creada</t>
   </si>
 </sst>
 </file>
@@ -2588,7 +2692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2780,6 +2884,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2789,6 +2900,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2861,18 +2984,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2906,15 +3023,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2939,6 +3047,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3044,15 +3161,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3077,7 +3185,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3391,220 +3509,220 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="77" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="79"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="82"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="85"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="92"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="91"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="96" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="98"/>
     </row>
     <row r="8" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="94"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="100"/>
     </row>
     <row r="9" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
     </row>
     <row r="10" spans="2:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="97"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="102"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="P11" s="74"/>
+    </row>
+    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+    </row>
+    <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="108" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="107" t="s">
-        <v>247</v>
-      </c>
-      <c r="P11" s="107"/>
-    </row>
-    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-    </row>
-    <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
@@ -3620,8 +3738,8 @@
       <c r="L14" s="59"/>
       <c r="M14" s="59"/>
       <c r="N14" s="39"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
@@ -3637,8 +3755,8 @@
       <c r="L15" s="59"/>
       <c r="M15" s="59"/>
       <c r="N15" s="39"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
@@ -3654,8 +3772,8 @@
       <c r="L16" s="59"/>
       <c r="M16" s="59"/>
       <c r="N16" s="39"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
     </row>
     <row r="17" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
@@ -3671,8 +3789,8 @@
       <c r="L17" s="59"/>
       <c r="M17" s="59"/>
       <c r="N17" s="39"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
@@ -3688,8 +3806,8 @@
       <c r="L18" s="59"/>
       <c r="M18" s="59"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
@@ -3705,8 +3823,8 @@
       <c r="L19" s="59"/>
       <c r="M19" s="59"/>
       <c r="N19" s="33"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
@@ -3722,8 +3840,8 @@
       <c r="L20" s="59"/>
       <c r="M20" s="59"/>
       <c r="N20" s="33"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
@@ -3739,23 +3857,11 @@
       <c r="L21" s="59"/>
       <c r="M21" s="59"/>
       <c r="N21" s="33"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:P13"/>
-    <mergeCell ref="O14:P14"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="B4:K6"/>
     <mergeCell ref="L4:P6"/>
@@ -3772,6 +3878,18 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3806,216 +3924,216 @@
   <sheetData>
     <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="46"/>
       <c r="K4" s="46"/>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="79"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
     </row>
     <row r="5" spans="3:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="82"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
     </row>
     <row r="6" spans="3:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="85"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="92"/>
     </row>
     <row r="7" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
       <c r="J7" s="51"/>
       <c r="K7" s="51"/>
-      <c r="L7" s="89" t="s">
+      <c r="L7" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="91"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="98"/>
     </row>
     <row r="8" spans="3:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="115"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="117"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="94"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="100"/>
     </row>
     <row r="9" spans="3:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="113" t="s">
+      <c r="D9" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
     </row>
     <row r="10" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="116"/>
-      <c r="I10" s="117"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="119"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="97"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="102"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="65" t="s">
+      <c r="I11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="107" t="s">
+      <c r="J11" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="L13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="L13" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
     </row>
     <row r="14" spans="3:16" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
@@ -4159,14 +4277,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="L4:P6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="L7:P10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="P11:P13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -4179,6 +4289,14 @@
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="J11:L12"/>
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="L4:P6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="L7:P10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4187,10 +4305,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996B62A1-15D5-41FD-8836-0AB4335DA4B2}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="B5:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O25" sqref="O18:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4207,293 +4328,303 @@
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="6.42578125" customWidth="1"/>
     <col min="13" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="46"/>
-      <c r="J6" s="77" t="s">
+      <c r="J6" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="79"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="86"/>
     </row>
     <row r="7" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
       <c r="I7" s="47"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="82"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="89"/>
     </row>
     <row r="8" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="76"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="48"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="85"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="92"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="158"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="160"/>
       <c r="I9" s="49"/>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="95"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="97"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="50"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="113" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="115"/>
+      <c r="C11" s="115" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="117"/>
       <c r="I11" s="53"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
     </row>
     <row r="12" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="113" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="115"/>
+      <c r="C12" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="117"/>
       <c r="I12" s="53"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
     </row>
     <row r="13" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="115"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="117"/>
       <c r="I13" s="53"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
     </row>
     <row r="14" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="117"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="160"/>
-      <c r="H14" s="161"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="163"/>
       <c r="I14" s="58"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
     </row>
     <row r="15" spans="2:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="156" t="s">
+      <c r="E15" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="156" t="s">
+      <c r="F15" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="156" t="s">
+      <c r="G15" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="156" t="s">
+      <c r="H15" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="107" t="s">
+      <c r="I15" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="74" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="74"/>
+    </row>
+    <row r="17" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="107" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="107"/>
-    </row>
-    <row r="17" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="37" t="s">
+      <c r="J17" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="K17" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="K17" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="107"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="74"/>
     </row>
     <row r="18" spans="2:15" ht="165" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>88</v>
+        <v>295</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>89</v>
+        <v>296</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+        <v>297</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I18" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" s="168"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="O18" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="19" spans="2:15" ht="293.25" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>95</v>
@@ -4504,24 +4635,34 @@
       <c r="G19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="H19" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I19" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="168"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="O19" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="20" spans="2:15" ht="331.5" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>92</v>
+        <v>299</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>93</v>
@@ -4532,21 +4673,31 @@
       <c r="G20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="H20" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" s="168"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="O20" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="21" spans="2:15" ht="204" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>34</v>
@@ -4560,21 +4711,31 @@
       <c r="G21" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="H21" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" s="170" t="s">
+        <v>252</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" s="169"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="O21" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="22" spans="2:15" ht="127.5" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>80</v>
@@ -4588,21 +4749,31 @@
       <c r="G22" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="H22" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I22" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" s="168"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="O22" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="23" spans="2:15" ht="127.5" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>38</v>
@@ -4616,21 +4787,31 @@
       <c r="G23" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="H23" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I23" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" s="168"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+      <c r="O23" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="24" spans="2:15" ht="127.5" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>39</v>
@@ -4644,21 +4825,31 @@
       <c r="G24" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="H24" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" s="168"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="O24" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="25" spans="2:15" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>86</v>
@@ -4672,22 +4863,27 @@
       <c r="G25" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="H25" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" s="168"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
+      <c r="O25" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="N15:N17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="B6:H8"/>
     <mergeCell ref="J6:O8"/>
@@ -4704,18 +4900,1109 @@
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="H15:H17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="N15:N17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ECD944-EE3B-41CF-A8AC-9E1C1043F351}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="B3:P21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14:P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" customWidth="1"/>
+    <col min="16" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="81"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="92"/>
+    </row>
+    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="164" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="96" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="98"/>
+    </row>
+    <row r="8" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="164" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="100"/>
+    </row>
+    <row r="9" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="164" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
+    </row>
+    <row r="10" spans="2:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="165"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="102"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="P11" s="74"/>
+    </row>
+    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+    </row>
+    <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+    </row>
+    <row r="14" spans="2:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" s="168"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L15" s="168"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="168"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="168"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I18" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" s="168"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="102" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="168"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" s="168"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" s="168"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B4:K6"/>
+    <mergeCell ref="L4:P6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:P10"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ECD944-EE3B-41CF-A8AC-9E1C1043F351}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD7BD3-B24E-47ED-8D02-DE5556966992}">
+  <dimension ref="C3:N22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="86"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="89"/>
+    </row>
+    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="98"/>
+    </row>
+    <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="100"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="100"/>
+    </row>
+    <row r="10" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="166">
+        <v>43779</v>
+      </c>
+      <c r="I10" s="119"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="102"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+    </row>
+    <row r="14" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="J14" s="66"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="3:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="J15" s="66"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="J16" s="66"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="3:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="J17" s="66"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="J18" s="66"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="3:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="J19" s="66"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="3:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:N10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:K8"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4739,1464 +6026,572 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="77" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="79"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="82"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="85"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="92"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="162" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="91"/>
+      <c r="C7" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="96" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="98"/>
     </row>
     <row r="8" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="162" t="s">
-        <v>281</v>
-      </c>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="94"/>
+      <c r="C8" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="100"/>
     </row>
     <row r="9" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
     </row>
     <row r="10" spans="2:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="163"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="60" t="s">
+      <c r="C10" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="97"/>
+      <c r="G10" s="109">
+        <v>43778</v>
+      </c>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="102"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="P11" s="74"/>
+    </row>
+    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+    </row>
+    <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="108" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="107" t="s">
+      <c r="J13" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+    </row>
+    <row r="14" spans="2:16" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="P11" s="107"/>
-    </row>
-    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-    </row>
-    <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
+      <c r="P14" s="67"/>
+    </row>
+    <row r="15" spans="2:16" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="M15" s="33"/>
       <c r="N15" s="39"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
+      <c r="O15" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P15" s="67"/>
+    </row>
+    <row r="16" spans="2:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="M16" s="33"/>
       <c r="N16" s="39"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-    </row>
-    <row r="17" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
+      <c r="O16" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P16" s="67"/>
+    </row>
+    <row r="17" spans="2:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="I17" s="33"/>
-      <c r="J17" s="57"/>
+      <c r="J17" s="57" t="s">
+        <v>252</v>
+      </c>
       <c r="K17" s="33"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
+      <c r="L17" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>219</v>
+      </c>
       <c r="N17" s="39"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
+      <c r="O17" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="P17" s="67"/>
+    </row>
+    <row r="18" spans="2:16" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="M18" s="33"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
+      <c r="O18" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P18" s="67"/>
+    </row>
+    <row r="19" spans="2:16" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="M19" s="33"/>
       <c r="N19" s="33"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
+      <c r="O19" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P19" s="67"/>
+    </row>
+    <row r="20" spans="2:16" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="M20" s="33"/>
       <c r="N20" s="33"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="O20" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P20" s="67"/>
+    </row>
+    <row r="21" spans="2:16" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="M21" s="33"/>
       <c r="N21" s="33"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
+      <c r="O21" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P21" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O11:P13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="B4:K6"/>
     <mergeCell ref="L4:P6"/>
+    <mergeCell ref="L7:P10"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:P10"/>
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:K10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD7BD3-B24E-47ED-8D02-DE5556966992}">
-  <dimension ref="C3:N22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="79"/>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82"/>
-    </row>
-    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85"/>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="110" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="91"/>
-    </row>
-    <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="94"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="113" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="94"/>
-    </row>
-    <row r="10" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="116"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="97"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-    </row>
-    <row r="14" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-    </row>
-    <row r="15" spans="3:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-    </row>
-    <row r="16" spans="3:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-    </row>
-    <row r="17" spans="3:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-    </row>
-    <row r="18" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-    </row>
-    <row r="19" spans="3:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-    </row>
-    <row r="20" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-    </row>
-    <row r="21" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-    </row>
-    <row r="22" spans="3:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="J4:N6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:N10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-  </sheetPr>
-  <dimension ref="B3:P21"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="79"/>
-    </row>
-    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="82"/>
-    </row>
-    <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="85"/>
-    </row>
-    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="91"/>
-    </row>
-    <row r="8" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="94"/>
-    </row>
-    <row r="9" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
-    </row>
-    <row r="10" spans="2:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="101" t="s">
-        <v>246</v>
-      </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="104">
-        <v>43778</v>
-      </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="97"/>
-    </row>
-    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="107" t="s">
-        <v>242</v>
-      </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="108" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="107" t="s">
-        <v>247</v>
-      </c>
-      <c r="P11" s="107"/>
-    </row>
-    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-    </row>
-    <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-    </row>
-    <row r="14" spans="2:16" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="L14" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="P14" s="109"/>
-    </row>
-    <row r="15" spans="2:16" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="L15" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="P15" s="109"/>
-    </row>
-    <row r="16" spans="2:16" ht="210" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="K16" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="L16" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="P16" s="109"/>
-    </row>
-    <row r="17" spans="2:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="M17" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="109" t="s">
-        <v>254</v>
-      </c>
-      <c r="P17" s="109"/>
-    </row>
-    <row r="18" spans="2:16" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="L18" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="P18" s="109"/>
-    </row>
-    <row r="19" spans="2:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="P19" s="109"/>
-    </row>
-    <row r="20" spans="2:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="P20" s="109"/>
-    </row>
-    <row r="21" spans="2:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="L21" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="P21" s="109"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B4:K6"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="L11:L13"/>
@@ -6205,19 +6600,13 @@
     <mergeCell ref="O11:P13"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
-    <mergeCell ref="L4:P6"/>
-    <mergeCell ref="L7:P10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B4:K6"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6232,8 +6621,8 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H8"/>
+    <sheetView topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6258,249 +6647,249 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="77" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="79"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="82"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="85"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="92"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="110" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
+      <c r="C7" s="112" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
-      <c r="L7" s="89" t="s">
+      <c r="L7" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="91"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="98"/>
     </row>
     <row r="8" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="94"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="100"/>
     </row>
     <row r="9" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
     </row>
     <row r="10" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="97"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="102"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="P11" s="74"/>
+    </row>
+    <row r="12" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+    </row>
+    <row r="13" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="107" t="s">
-        <v>247</v>
-      </c>
-      <c r="P11" s="107"/>
-    </row>
-    <row r="12" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-    </row>
-    <row r="13" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
     </row>
     <row r="14" spans="2:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>255</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>256</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="I14" s="43" t="s">
         <v>202</v>
       </c>
@@ -6511,18 +6900,18 @@
         <v>202</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="P14" s="109"/>
+      <c r="O14" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P14" s="67"/>
     </row>
     <row r="15" spans="2:16" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>48</v>
@@ -6540,7 +6929,7 @@
         <v>32</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I15" s="43" t="s">
         <v>202</v>
@@ -6552,18 +6941,18 @@
         <v>202</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
-      <c r="O15" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="P15" s="109"/>
+      <c r="O15" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P15" s="67"/>
     </row>
     <row r="16" spans="2:16" ht="229.5" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>48</v>
@@ -6572,7 +6961,7 @@
         <v>53</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>28</v>
@@ -6581,7 +6970,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>202</v>
@@ -6593,20 +6982,20 @@
         <v>202</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M16" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N16" s="33"/>
-      <c r="O16" s="109" t="s">
-        <v>254</v>
-      </c>
-      <c r="P16" s="109"/>
+      <c r="O16" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="P16" s="67"/>
     </row>
     <row r="17" spans="2:16" ht="180" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>48</v>
@@ -6624,46 +7013,46 @@
         <v>36</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K17" s="44"/>
       <c r="L17" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N17" s="33"/>
-      <c r="O17" s="109" t="s">
-        <v>254</v>
-      </c>
-      <c r="P17" s="109"/>
+      <c r="O17" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="P17" s="67"/>
     </row>
     <row r="18" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I18" s="43" t="s">
         <v>202</v>
@@ -6675,14 +7064,14 @@
         <v>202</v>
       </c>
       <c r="L18" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="P18" s="109"/>
+      <c r="O18" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P18" s="67"/>
     </row>
     <row r="19" spans="2:16" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
@@ -6695,16 +7084,16 @@
         <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I19" s="43" t="s">
         <v>202</v>
@@ -6716,14 +7105,14 @@
         <v>202</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
-      <c r="O19" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="P19" s="109"/>
+      <c r="O19" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P19" s="67"/>
     </row>
     <row r="20" spans="2:16" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
@@ -6736,7 +7125,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>43</v>
@@ -6745,7 +7134,7 @@
         <v>50</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I20" s="43" t="s">
         <v>202</v>
@@ -6757,14 +7146,14 @@
         <v>202</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
-      <c r="O20" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="P20" s="109"/>
+      <c r="O20" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P20" s="67"/>
     </row>
     <row r="21" spans="2:16" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
@@ -6777,7 +7166,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>44</v>
@@ -6786,7 +7175,7 @@
         <v>51</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I21" s="43" t="s">
         <v>202</v>
@@ -6798,17 +7187,29 @@
         <v>202</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
-      <c r="O21" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="P21" s="109"/>
+      <c r="O21" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P21" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
@@ -6825,18 +7226,6 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="O11:P13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="I11:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6848,7 +7237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF69378-5C9E-410A-9F24-6A5C43D39D40}">
   <dimension ref="B3:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:H8"/>
     </sheetView>
   </sheetViews>
@@ -6871,216 +7260,216 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="46"/>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="82"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="89"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="48"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="92"/>
     </row>
     <row r="7" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="110" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
+      <c r="C7" s="112" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="91"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
       <c r="I8" s="52"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="100"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="52"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="94"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="100"/>
     </row>
     <row r="10" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="97"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="102"/>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
     </row>
     <row r="14" spans="2:15" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
@@ -7308,26 +7697,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J4:O6"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="B4:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="J7:O10"/>
+    <mergeCell ref="J4:O6"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="N11:N13"/>
     <mergeCell ref="O11:O13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="H11:H13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="J7:O10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7336,10 +7725,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E65285-BD75-4307-9A81-36792F3C310E}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="B3:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H8"/>
+    <sheetView topLeftCell="A18" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7356,221 +7748,221 @@
     <col min="12" max="12" width="7.140625" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" customWidth="1"/>
     <col min="14" max="14" width="5.5703125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
     </row>
     <row r="5" spans="2:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="82"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="89"/>
     </row>
     <row r="6" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="92"/>
     </row>
     <row r="7" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="110" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
+      <c r="C7" s="112" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="91"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
     </row>
     <row r="8" spans="2:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="100"/>
     </row>
     <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="94"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="100"/>
     </row>
     <row r="10" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="97"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="102"/>
     </row>
     <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
     </row>
     <row r="14" spans="2:19" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -7591,16 +7983,26 @@
       <c r="G14" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="H14" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" s="66"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="O14" s="33" t="s">
+        <v>247</v>
+      </c>
       <c r="S14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7622,14 +8024,24 @@
       <c r="G15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="H15" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L15" s="66"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="O15" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="16" spans="2:19" ht="300.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -7650,14 +8062,24 @@
       <c r="G16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="H16" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="66"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="O16" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="17" spans="2:15" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -7678,14 +8100,20 @@
       <c r="G17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="H17" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="167"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="O17" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="18" spans="2:15" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -7706,14 +8134,24 @@
       <c r="G18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="H18" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" s="66"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="O18" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="19" spans="2:15" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
@@ -7734,14 +8172,24 @@
       <c r="G19" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="H19" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="66"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
+      <c r="O19" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="20" spans="2:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
@@ -7762,14 +8210,24 @@
       <c r="G20" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="H20" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" s="66"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
+      <c r="O20" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="21" spans="2:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
@@ -7790,17 +8248,31 @@
       <c r="G21" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="H21" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" s="66"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
+      <c r="O21" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="N11:N13"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="B4:H6"/>
     <mergeCell ref="K4:O6"/>
@@ -7810,17 +8282,13 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="N11:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7829,10 +8297,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B83024-9021-43CC-86C0-CBE472185E4B}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="B3:O21"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H8"/>
+    <sheetView topLeftCell="A8" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7843,225 +8314,227 @@
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="28.85546875" customWidth="1"/>
-    <col min="8" max="10" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
     <col min="12" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="77" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="82"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="89"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="92"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="91"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
     </row>
     <row r="8" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="100"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="94"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="100"/>
     </row>
     <row r="10" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="97"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="102"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+    </row>
+    <row r="13" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
     </row>
     <row r="14" spans="2:15" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -8082,14 +8555,24 @@
       <c r="G14" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="H14" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" s="66"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="O14" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="15" spans="2:15" ht="280.5" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -8110,14 +8593,24 @@
       <c r="G15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="H15" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L15" s="66"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="O15" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="16" spans="2:15" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -8138,14 +8631,24 @@
       <c r="G16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="H16" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="66"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="O16" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="17" spans="2:15" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -8166,14 +8669,20 @@
       <c r="G17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="H17" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="167"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="O17" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="18" spans="2:15" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -8194,14 +8703,24 @@
       <c r="G18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="H18" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" s="66"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="O18" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="19" spans="2:15" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
@@ -8222,14 +8741,24 @@
       <c r="G19" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="H19" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="66"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
+      <c r="O19" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="20" spans="2:15" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
@@ -8250,14 +8779,24 @@
       <c r="G20" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="H20" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" s="66"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
+      <c r="O20" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="21" spans="2:15" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
@@ -8278,25 +8817,27 @@
       <c r="G21" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="H21" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" s="66"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
+      <c r="O21" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K4:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="K7:O10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B4:J6"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -8309,6 +8850,14 @@
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="I11:K12"/>
+    <mergeCell ref="K4:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="K7:O10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B4:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8322,8 +8871,8 @@
   </sheetPr>
   <dimension ref="B3:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H8"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8346,216 +8895,216 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
     </row>
     <row r="5" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="82"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="89"/>
     </row>
     <row r="6" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="92"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="91"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
     </row>
     <row r="8" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="100"/>
     </row>
     <row r="9" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="94"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="100"/>
     </row>
     <row r="10" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="97"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="102"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+    </row>
+    <row r="13" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
     </row>
     <row r="14" spans="2:15" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -8576,7 +9125,9 @@
       <c r="G14" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="I14" s="64" t="s">
         <v>202</v>
       </c>
@@ -8587,12 +9138,12 @@
         <v>202</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="280.5" x14ac:dyDescent="0.25">
@@ -8614,7 +9165,9 @@
       <c r="G15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="I15" s="64" t="s">
         <v>202</v>
       </c>
@@ -8625,12 +9178,12 @@
         <v>202</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="382.5" x14ac:dyDescent="0.25">
@@ -8652,7 +9205,9 @@
       <c r="G16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="24"/>
+      <c r="H16" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="I16" s="64" t="s">
         <v>202</v>
       </c>
@@ -8663,12 +9218,12 @@
         <v>202</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="270.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8690,7 +9245,9 @@
       <c r="G17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="I17" s="64" t="s">
         <v>202</v>
       </c>
@@ -8701,12 +9258,12 @@
         <v>202</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8728,7 +9285,9 @@
       <c r="G18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="I18" s="64" t="s">
         <v>202</v>
       </c>
@@ -8739,12 +9298,12 @@
         <v>202</v>
       </c>
       <c r="L18" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
       <c r="O18" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8766,7 +9325,9 @@
       <c r="G19" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="I19" s="64" t="s">
         <v>202</v>
       </c>
@@ -8777,12 +9338,12 @@
         <v>202</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8804,7 +9365,9 @@
       <c r="G20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="I20" s="64" t="s">
         <v>202</v>
       </c>
@@ -8815,12 +9378,12 @@
         <v>202</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8842,7 +9405,9 @@
       <c r="G21" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="24"/>
+      <c r="H21" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="I21" s="64" t="s">
         <v>202</v>
       </c>
@@ -8853,27 +9418,19 @@
         <v>202</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O24" s="164"/>
+      <c r="O24" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="K4:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="K7:O10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -8886,6 +9443,14 @@
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="I11:K12"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="K4:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="K7:O10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8897,8 +9462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ED4A39-E2C2-40A4-A2EF-E325FC0589EC}">
   <dimension ref="B3:O19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H8"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8920,216 +9485,216 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
     </row>
     <row r="5" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="82"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="89"/>
     </row>
     <row r="6" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="92"/>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="110" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
+      <c r="C7" s="112" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="91"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
     </row>
     <row r="8" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="100"/>
     </row>
     <row r="9" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="94"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="100"/>
     </row>
     <row r="10" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="97"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="102"/>
     </row>
     <row r="11" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
     </row>
     <row r="14" spans="2:15" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -9301,14 +9866,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="K4:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="K7:O10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -9321,6 +9878,14 @@
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="I11:K12"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="K4:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="K7:O10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9329,10 +9894,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEA60B5-646D-4C1D-80DD-E023A21A3604}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="B3:O21"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H8"/>
+    <sheetView topLeftCell="A20" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9343,225 +9911,227 @@
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="10" width="23" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="122"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="127"/>
       <c r="I4" s="54"/>
       <c r="J4" s="54"/>
-      <c r="K4" s="129" t="s">
+      <c r="K4" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="131"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="136"/>
     </row>
     <row r="5" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="123"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="125"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="130"/>
       <c r="I5" s="55"/>
       <c r="J5" s="55"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="134"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="139"/>
     </row>
     <row r="6" spans="2:15" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="126"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="128"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="133"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="137"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="142"/>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="140"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="61"/>
       <c r="J7" s="61"/>
-      <c r="K7" s="141" t="s">
+      <c r="K7" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="143"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="148"/>
     </row>
     <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="152"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="157"/>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="146"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="151"/>
     </row>
     <row r="9" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="152"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="157"/>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="146"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="151"/>
     </row>
     <row r="10" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="150"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="152"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
       <c r="F10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="150"/>
-      <c r="H10" s="152"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="157"/>
       <c r="I10" s="63"/>
       <c r="J10" s="63"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="149"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="154"/>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="153" t="s">
+      <c r="D11" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="153" t="s">
+      <c r="E11" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="153" t="s">
+      <c r="F11" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="153" t="s">
+      <c r="G11" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="153" t="s">
+      <c r="H11" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+    </row>
+    <row r="13" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
     </row>
     <row r="14" spans="2:15" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
@@ -9582,14 +10152,24 @@
       <c r="G14" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
+      <c r="H14" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>202</v>
+      </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="O14" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="15" spans="2:15" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
@@ -9601,7 +10181,7 @@
       <c r="D15" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="118" t="s">
+      <c r="E15" s="123" t="s">
         <v>173</v>
       </c>
       <c r="F15" s="23" t="s">
@@ -9610,30 +10190,50 @@
       <c r="G15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
+      <c r="H15" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>202</v>
+      </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="O15" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="16" spans="2:15" ht="323.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="26"/>
-      <c r="E16" s="119"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="23"/>
       <c r="G16" s="31"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
+      <c r="H16" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>202</v>
+      </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="O16" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="17" spans="2:15" ht="242.25" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
@@ -9654,14 +10254,24 @@
       <c r="G17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
+      <c r="H17" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="64" t="s">
+        <v>202</v>
+      </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="O17" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="18" spans="2:15" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
@@ -9682,14 +10292,24 @@
       <c r="G18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="H18" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I18" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>202</v>
+      </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="O18" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="19" spans="2:15" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
@@ -9701,7 +10321,7 @@
       <c r="D19" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="118" t="s">
+      <c r="E19" s="123" t="s">
         <v>176</v>
       </c>
       <c r="F19" s="23" t="s">
@@ -9710,30 +10330,50 @@
       <c r="G19" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="H19" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>202</v>
+      </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
+      <c r="O19" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="20" spans="2:15" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="119"/>
+      <c r="E20" s="124"/>
       <c r="F20" s="23"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
+      <c r="H20" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="64" t="s">
+        <v>202</v>
+      </c>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
+      <c r="O20" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="21" spans="2:15" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
@@ -9754,23 +10394,27 @@
       <c r="G21" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="H21" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>202</v>
+      </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
+      <c r="O21" s="33" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="I11:K12"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B4:H6"/>
@@ -9787,6 +10431,12 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="I11:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
+++ b/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanAmbiente\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase2\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF7685C-F5DF-4EBD-A766-446E196209F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B9CEC2-E089-4656-BB31-1C28671D4F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="315">
   <si>
     <t>EJECUCION DE PRUEBAS</t>
   </si>
@@ -2258,6 +2258,12 @@
   </si>
   <si>
     <t>El aplicativo permite editar y actualizar los campos nombre y descripcion de la organizacion creada</t>
+  </si>
+  <si>
+    <t>SE REALIZARON 2 ITERACIONES</t>
+  </si>
+  <si>
+    <t>SOLO SE REALIZARON 2 ITERACIONES</t>
   </si>
 </sst>
 </file>
@@ -2888,306 +2894,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3195,6 +2901,306 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3509,95 +3515,95 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="84" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="86"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="88"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="92"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="91"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="96" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="95" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="98"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="97"/>
     </row>
     <row r="8" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="72"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="98"/>
       <c r="M8" s="99"/>
       <c r="N8" s="99"/>
       <c r="O8" s="99"/>
@@ -3607,16 +3613,16 @@
       <c r="B9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="72"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="99"/>
       <c r="N9" s="99"/>
       <c r="O9" s="99"/>
@@ -3626,89 +3632,89 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="109"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="102"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="103"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="68" t="s">
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="71" t="s">
+      <c r="N11" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="74" t="s">
+      <c r="O11" s="113" t="s">
         <v>246</v>
       </c>
-      <c r="P11" s="74"/>
+      <c r="P11" s="113"/>
     </row>
     <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
     </row>
     <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
@@ -3718,11 +3724,11 @@
       <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
@@ -3738,8 +3744,8 @@
       <c r="L14" s="59"/>
       <c r="M14" s="59"/>
       <c r="N14" s="39"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
@@ -3755,8 +3761,8 @@
       <c r="L15" s="59"/>
       <c r="M15" s="59"/>
       <c r="N15" s="39"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
@@ -3772,8 +3778,8 @@
       <c r="L16" s="59"/>
       <c r="M16" s="59"/>
       <c r="N16" s="39"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
     </row>
     <row r="17" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
@@ -3789,8 +3795,8 @@
       <c r="L17" s="59"/>
       <c r="M17" s="59"/>
       <c r="N17" s="39"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
@@ -3806,8 +3812,8 @@
       <c r="L18" s="59"/>
       <c r="M18" s="59"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
@@ -3823,8 +3829,8 @@
       <c r="L19" s="59"/>
       <c r="M19" s="59"/>
       <c r="N19" s="33"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
@@ -3840,8 +3846,8 @@
       <c r="L20" s="59"/>
       <c r="M20" s="59"/>
       <c r="N20" s="33"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
@@ -3857,11 +3863,23 @@
       <c r="L21" s="59"/>
       <c r="M21" s="59"/>
       <c r="N21" s="33"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="O14:P14"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="B4:K6"/>
     <mergeCell ref="L4:P6"/>
@@ -3878,18 +3896,6 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3924,94 +3930,94 @@
   <sheetData>
     <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="46"/>
       <c r="K4" s="46"/>
-      <c r="L4" s="84" t="s">
+      <c r="L4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="86"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
     </row>
     <row r="5" spans="3:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="88"/>
     </row>
     <row r="6" spans="3:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="83"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="92"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="91"/>
     </row>
     <row r="7" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
       <c r="J7" s="51"/>
       <c r="K7" s="51"/>
-      <c r="L7" s="96" t="s">
+      <c r="L7" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="98"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="97"/>
     </row>
     <row r="8" spans="3:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="117"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="121"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="72"/>
+      <c r="L8" s="98"/>
       <c r="M8" s="99"/>
       <c r="N8" s="99"/>
       <c r="O8" s="99"/>
@@ -4021,17 +4027,17 @@
       <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="72"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="99"/>
       <c r="N9" s="99"/>
       <c r="O9" s="99"/>
@@ -4041,86 +4047,86 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="109"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="102"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="103"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="68" t="s">
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="68" t="s">
+      <c r="O11" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="68" t="s">
+      <c r="P11" s="71" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="37" t="s">
         <v>242</v>
       </c>
@@ -4130,10 +4136,10 @@
       <c r="L13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
     </row>
     <row r="14" spans="3:16" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
@@ -4277,6 +4283,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="L4:P6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="L7:P10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="P11:P13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -4289,14 +4303,6 @@
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="J11:L12"/>
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="L4:P6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="L7:P10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4310,8 +4316,8 @@
   </sheetPr>
   <dimension ref="B5:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O25" sqref="O18:O25"/>
+    <sheetView topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4333,237 +4339,237 @@
   <sheetData>
     <row r="5" spans="2:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="46"/>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="86"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="85"/>
     </row>
     <row r="7" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79"/>
       <c r="I7" s="47"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="89"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="88"/>
     </row>
     <row r="8" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="48"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="92"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="91"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="160"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="164"/>
       <c r="I9" s="49"/>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="73"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="102"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="50"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="119" t="s">
         <v>277</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
       <c r="I11" s="53"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
     </row>
     <row r="12" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
       <c r="I12" s="53"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
     </row>
     <row r="13" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
       <c r="I13" s="53"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
     </row>
     <row r="14" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="162"/>
-      <c r="H14" s="163"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="167"/>
       <c r="I14" s="58"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
     </row>
     <row r="15" spans="2:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="158" t="s">
+      <c r="E15" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="158" t="s">
+      <c r="F15" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="158" t="s">
+      <c r="G15" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="158" t="s">
+      <c r="H15" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74" t="s">
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="74" t="s">
+      <c r="M15" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="N15" s="68" t="s">
+      <c r="N15" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="74" t="s">
+      <c r="O15" s="113" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="74"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="113"/>
     </row>
     <row r="17" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
       <c r="I17" s="37" t="s">
         <v>242</v>
       </c>
@@ -4573,10 +4579,10 @@
       <c r="K17" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="74"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="113"/>
     </row>
     <row r="18" spans="2:15" ht="165" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -4609,7 +4615,7 @@
       <c r="K18" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L18" s="168"/>
+      <c r="L18" s="68"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="33" t="s">
@@ -4647,7 +4653,7 @@
       <c r="K19" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L19" s="168"/>
+      <c r="L19" s="68"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="33" t="s">
@@ -4685,7 +4691,7 @@
       <c r="K20" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L20" s="168"/>
+      <c r="L20" s="68"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="33" t="s">
@@ -4717,17 +4723,17 @@
       <c r="I21" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="J21" s="170" t="s">
+      <c r="J21" s="70" t="s">
         <v>252</v>
       </c>
       <c r="K21" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L21" s="169"/>
-      <c r="M21" s="6"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="68"/>
       <c r="N21" s="6"/>
       <c r="O21" s="33" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="127.5" x14ac:dyDescent="0.25">
@@ -4761,7 +4767,7 @@
       <c r="K22" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L22" s="168"/>
+      <c r="L22" s="68"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="33" t="s">
@@ -4799,7 +4805,7 @@
       <c r="K23" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L23" s="168"/>
+      <c r="L23" s="68"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="33" t="s">
@@ -4837,7 +4843,7 @@
       <c r="K24" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L24" s="168"/>
+      <c r="L24" s="68"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="33" t="s">
@@ -4875,7 +4881,7 @@
       <c r="K25" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L25" s="168"/>
+      <c r="L25" s="68"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="33" t="s">
@@ -4884,6 +4890,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="N15:N17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="B6:H8"/>
     <mergeCell ref="J6:O8"/>
@@ -4900,11 +4911,6 @@
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="H15:H17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="N15:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4919,8 +4925,8 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:P21"/>
+    <sheetView topLeftCell="A10" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4944,99 +4950,99 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="84" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="86"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="88"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="92"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="91"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="168" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="96" t="s">
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="95" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="98"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="97"/>
     </row>
     <row r="8" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="168" t="s">
         <v>280</v>
       </c>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="72"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="98"/>
       <c r="M8" s="99"/>
       <c r="N8" s="99"/>
       <c r="O8" s="99"/>
@@ -5046,18 +5052,18 @@
       <c r="B9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="164" t="s">
+      <c r="C9" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="72"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="99"/>
       <c r="N9" s="99"/>
       <c r="O9" s="99"/>
@@ -5067,89 +5073,89 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="165"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="109"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="102"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="103"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="68" t="s">
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="71" t="s">
+      <c r="N11" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="74" t="s">
+      <c r="O11" s="113" t="s">
         <v>246</v>
       </c>
-      <c r="P11" s="74"/>
+      <c r="P11" s="113"/>
     </row>
     <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
     </row>
     <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
@@ -5159,11 +5165,11 @@
       <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
     </row>
     <row r="14" spans="2:16" ht="135" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -5196,7 +5202,7 @@
       <c r="K14" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L14" s="168"/>
+      <c r="L14" s="68"/>
       <c r="M14" s="59"/>
       <c r="N14" s="39"/>
       <c r="O14" s="33"/>
@@ -5235,7 +5241,7 @@
       <c r="K15" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L15" s="168"/>
+      <c r="L15" s="68"/>
       <c r="M15" s="59"/>
       <c r="N15" s="39"/>
       <c r="O15" s="33"/>
@@ -5274,7 +5280,7 @@
       <c r="K16" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L16" s="168"/>
+      <c r="L16" s="68"/>
       <c r="M16" s="59"/>
       <c r="N16" s="39"/>
       <c r="O16" s="33"/>
@@ -5313,7 +5319,7 @@
       <c r="K17" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L17" s="168"/>
+      <c r="L17" s="68"/>
       <c r="M17" s="59"/>
       <c r="N17" s="39"/>
       <c r="O17" s="33"/>
@@ -5352,7 +5358,7 @@
       <c r="K18" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L18" s="168"/>
+      <c r="L18" s="68"/>
       <c r="M18" s="59"/>
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
@@ -5391,7 +5397,7 @@
       <c r="K19" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L19" s="168"/>
+      <c r="L19" s="68"/>
       <c r="M19" s="59"/>
       <c r="N19" s="33"/>
       <c r="O19" s="33"/>
@@ -5430,7 +5436,7 @@
       <c r="K20" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L20" s="168"/>
+      <c r="L20" s="68"/>
       <c r="M20" s="59"/>
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
@@ -5469,7 +5475,7 @@
       <c r="K21" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L21" s="168"/>
+      <c r="L21" s="68"/>
       <c r="M21" s="59"/>
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
@@ -5479,14 +5485,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:K6"/>
-    <mergeCell ref="L4:P6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:P10"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="O11:P13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -5499,6 +5497,14 @@
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
+    <mergeCell ref="B4:K6"/>
+    <mergeCell ref="L4:P6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:P10"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5531,84 +5537,84 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="84" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="86"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="85"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="89"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="88"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="91"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="96" t="s">
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="98"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
     </row>
     <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="115" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="72"/>
+      <c r="D8" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="98"/>
       <c r="K8" s="99"/>
       <c r="L8" s="99"/>
       <c r="M8" s="99"/>
@@ -5618,15 +5624,15 @@
       <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="119" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="72"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="98"/>
       <c r="K9" s="99"/>
       <c r="L9" s="99"/>
       <c r="M9" s="99"/>
@@ -5636,89 +5642,89 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="109"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="166">
+      <c r="H10" s="170">
         <v>43779</v>
       </c>
-      <c r="I10" s="119"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="102"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="103"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
     </row>
     <row r="14" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
@@ -5968,14 +5974,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="J4:N6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:N10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -5988,6 +5986,14 @@
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="M11:M13"/>
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:N10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6001,8 +6007,8 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6026,99 +6032,99 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="84" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="86"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="88"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="92"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="91"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="96" t="s">
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="95" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="98"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="97"/>
     </row>
     <row r="8" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="72"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="98"/>
       <c r="M8" s="99"/>
       <c r="N8" s="99"/>
       <c r="O8" s="99"/>
@@ -6128,18 +6134,18 @@
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="72"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="99"/>
       <c r="N9" s="99"/>
       <c r="O9" s="99"/>
@@ -6149,93 +6155,93 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="107" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="109">
+      <c r="G10" s="110">
         <v>43778</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="102"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="103"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="68" t="s">
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="71" t="s">
+      <c r="N11" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="74" t="s">
+      <c r="O11" s="113" t="s">
         <v>246</v>
       </c>
-      <c r="P11" s="74"/>
+      <c r="P11" s="113"/>
     </row>
     <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
     </row>
     <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
@@ -6245,11 +6251,11 @@
       <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
     </row>
     <row r="14" spans="2:16" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -6287,10 +6293,10 @@
       </c>
       <c r="M14" s="33"/>
       <c r="N14" s="39"/>
-      <c r="O14" s="67" t="s">
+      <c r="O14" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="P14" s="67"/>
+      <c r="P14" s="115"/>
     </row>
     <row r="15" spans="2:16" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -6328,10 +6334,10 @@
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="39"/>
-      <c r="O15" s="67" t="s">
+      <c r="O15" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="P15" s="67"/>
+      <c r="P15" s="115"/>
     </row>
     <row r="16" spans="2:16" ht="210" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
@@ -6369,10 +6375,10 @@
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="39"/>
-      <c r="O16" s="67" t="s">
+      <c r="O16" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="P16" s="67"/>
+      <c r="P16" s="115"/>
     </row>
     <row r="17" spans="2:16" ht="180" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
@@ -6408,10 +6414,10 @@
         <v>219</v>
       </c>
       <c r="N17" s="39"/>
-      <c r="O17" s="67" t="s">
+      <c r="O17" s="115" t="s">
         <v>253</v>
       </c>
-      <c r="P17" s="67"/>
+      <c r="P17" s="115"/>
     </row>
     <row r="18" spans="2:16" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
@@ -6449,10 +6455,10 @@
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="67" t="s">
+      <c r="O18" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="P18" s="67"/>
+      <c r="P18" s="115"/>
     </row>
     <row r="19" spans="2:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
@@ -6490,10 +6496,10 @@
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
-      <c r="O19" s="67" t="s">
+      <c r="O19" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="P19" s="67"/>
+      <c r="P19" s="115"/>
     </row>
     <row r="20" spans="2:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
@@ -6531,10 +6537,10 @@
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
-      <c r="O20" s="67" t="s">
+      <c r="O20" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="P20" s="67"/>
+      <c r="P20" s="115"/>
     </row>
     <row r="21" spans="2:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
@@ -6572,18 +6578,28 @@
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
-      <c r="O21" s="67" t="s">
+      <c r="O21" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="P21" s="67"/>
+      <c r="P21" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
     <mergeCell ref="L4:P6"/>
     <mergeCell ref="L7:P10"/>
     <mergeCell ref="C10:E10"/>
@@ -6592,21 +6608,11 @@
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="B4:K6"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O11:P13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6621,8 +6627,8 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:K21"/>
+    <sheetView topLeftCell="A4" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6647,99 +6653,99 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="84" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="86"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="88"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="92"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="91"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="116" t="s">
         <v>273</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
-      <c r="L7" s="96" t="s">
+      <c r="L7" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="98"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="97"/>
     </row>
     <row r="8" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="121"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="72"/>
+      <c r="L8" s="98"/>
       <c r="M8" s="99"/>
       <c r="N8" s="99"/>
       <c r="O8" s="99"/>
@@ -6749,18 +6755,18 @@
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="121"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="72"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="99"/>
       <c r="N9" s="99"/>
       <c r="O9" s="99"/>
@@ -6770,89 +6776,89 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="119"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="102"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="103"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="68" t="s">
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="74" t="s">
+      <c r="O11" s="113" t="s">
         <v>246</v>
       </c>
-      <c r="P11" s="74"/>
+      <c r="P11" s="113"/>
     </row>
     <row r="12" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
     </row>
     <row r="13" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
@@ -6862,11 +6868,11 @@
       <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
     </row>
     <row r="14" spans="2:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -6904,10 +6910,10 @@
       </c>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="67" t="s">
+      <c r="O14" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="P14" s="67"/>
+      <c r="P14" s="115"/>
     </row>
     <row r="15" spans="2:16" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -6945,10 +6951,10 @@
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
-      <c r="O15" s="67" t="s">
+      <c r="O15" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="P15" s="67"/>
+      <c r="P15" s="115"/>
     </row>
     <row r="16" spans="2:16" ht="229.5" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -6988,10 +6994,10 @@
         <v>219</v>
       </c>
       <c r="N16" s="33"/>
-      <c r="O16" s="67" t="s">
+      <c r="O16" s="115" t="s">
         <v>253</v>
       </c>
-      <c r="P16" s="67"/>
+      <c r="P16" s="115"/>
     </row>
     <row r="17" spans="2:16" ht="180" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
@@ -7027,10 +7033,10 @@
         <v>219</v>
       </c>
       <c r="N17" s="33"/>
-      <c r="O17" s="67" t="s">
+      <c r="O17" s="115" t="s">
         <v>253</v>
       </c>
-      <c r="P17" s="67"/>
+      <c r="P17" s="115"/>
     </row>
     <row r="18" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
@@ -7068,10 +7074,10 @@
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="67" t="s">
+      <c r="O18" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="P18" s="67"/>
+      <c r="P18" s="115"/>
     </row>
     <row r="19" spans="2:16" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
@@ -7109,10 +7115,10 @@
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
-      <c r="O19" s="67" t="s">
+      <c r="O19" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="P19" s="67"/>
+      <c r="P19" s="115"/>
     </row>
     <row r="20" spans="2:16" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
@@ -7150,10 +7156,10 @@
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
-      <c r="O20" s="67" t="s">
+      <c r="O20" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="P20" s="67"/>
+      <c r="P20" s="115"/>
     </row>
     <row r="21" spans="2:16" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
@@ -7191,25 +7197,13 @@
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
-      <c r="O21" s="67" t="s">
+      <c r="O21" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="P21" s="67"/>
+      <c r="P21" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O11:P13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
@@ -7226,6 +7220,18 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="I11:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7260,93 +7266,93 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="46"/>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="89"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="88"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="48"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="92"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
     </row>
     <row r="7" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="116" t="s">
         <v>274</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="96" t="s">
+      <c r="J7" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="98"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="121"/>
       <c r="I8" s="52"/>
-      <c r="J8" s="72"/>
+      <c r="J8" s="98"/>
       <c r="K8" s="99"/>
       <c r="L8" s="99"/>
       <c r="M8" s="99"/>
@@ -7357,16 +7363,16 @@
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="121"/>
       <c r="I9" s="52"/>
-      <c r="J9" s="72"/>
+      <c r="J9" s="98"/>
       <c r="K9" s="99"/>
       <c r="L9" s="99"/>
       <c r="M9" s="99"/>
@@ -7377,86 +7383,86 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="119"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="103"/>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="68" t="s">
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="68" t="s">
+      <c r="O11" s="71" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
@@ -7466,10 +7472,10 @@
       <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
     </row>
     <row r="14" spans="2:15" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
@@ -7697,6 +7703,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="J7:O10"/>
+    <mergeCell ref="J4:O6"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:O13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="B4:H6"/>
@@ -7705,13 +7718,6 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="J7:O10"/>
-    <mergeCell ref="J4:O6"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:O13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
@@ -7731,7 +7737,7 @@
   <dimension ref="B3:S21"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H21"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7748,99 +7754,99 @@
     <col min="12" max="12" width="7.140625" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" customWidth="1"/>
     <col min="14" max="14" width="5.5703125" customWidth="1"/>
-    <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="2:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="89"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="88"/>
     </row>
     <row r="6" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="92"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
     </row>
     <row r="7" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="116" t="s">
         <v>275</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
-      <c r="K7" s="96" t="s">
+      <c r="K7" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="98"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="2:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="121"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="72"/>
+      <c r="K8" s="98"/>
       <c r="L8" s="99"/>
       <c r="M8" s="99"/>
       <c r="N8" s="99"/>
@@ -7850,17 +7856,17 @@
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="121"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="72"/>
+      <c r="K9" s="98"/>
       <c r="L9" s="99"/>
       <c r="M9" s="99"/>
       <c r="N9" s="99"/>
@@ -7870,86 +7876,86 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="119"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="103"/>
     </row>
     <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="68" t="s">
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="68" t="s">
+      <c r="O11" s="71" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
@@ -7959,10 +7965,10 @@
       <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
     </row>
     <row r="14" spans="2:19" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -8108,11 +8114,11 @@
         <v>252</v>
       </c>
       <c r="K17" s="33"/>
-      <c r="L17" s="167"/>
-      <c r="M17" s="25"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="66"/>
       <c r="N17" s="25"/>
       <c r="O17" s="33" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8269,11 +8275,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="B4:H6"/>
     <mergeCell ref="K4:O6"/>
     <mergeCell ref="C7:H7"/>
@@ -8282,13 +8290,11 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:O13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8302,8 +8308,8 @@
   </sheetPr>
   <dimension ref="B3:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A17" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8320,99 +8326,99 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
     <col min="12" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="84" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="89"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="88"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="92"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
-      <c r="K7" s="96" t="s">
+      <c r="K7" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="98"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="121"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="72"/>
+      <c r="K8" s="98"/>
       <c r="L8" s="99"/>
       <c r="M8" s="99"/>
       <c r="N8" s="99"/>
@@ -8422,17 +8428,17 @@
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="121"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="72"/>
+      <c r="K9" s="98"/>
       <c r="L9" s="99"/>
       <c r="M9" s="99"/>
       <c r="N9" s="99"/>
@@ -8442,86 +8448,86 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="119"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="103"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="68" t="s">
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="68" t="s">
+      <c r="O11" s="71" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
     </row>
     <row r="13" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
@@ -8531,10 +8537,10 @@
       <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
     </row>
     <row r="14" spans="2:15" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -8677,11 +8683,11 @@
         <v>252</v>
       </c>
       <c r="K17" s="33"/>
-      <c r="L17" s="167"/>
-      <c r="M17" s="25"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="66"/>
       <c r="N17" s="25"/>
       <c r="O17" s="33" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="153" customHeight="1" x14ac:dyDescent="0.25">
@@ -8838,6 +8844,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K4:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="K7:O10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B4:J6"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -8850,14 +8864,6 @@
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="I11:K12"/>
-    <mergeCell ref="K4:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="K7:O10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B4:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8871,7 +8877,7 @@
   </sheetPr>
   <dimension ref="B3:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H14" sqref="H14:H19"/>
     </sheetView>
   </sheetViews>
@@ -8895,94 +8901,94 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="89"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="88"/>
     </row>
     <row r="6" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="92"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
-      <c r="K7" s="96" t="s">
+      <c r="K7" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="98"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="121"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="72"/>
+      <c r="K8" s="98"/>
       <c r="L8" s="99"/>
       <c r="M8" s="99"/>
       <c r="N8" s="99"/>
@@ -8992,17 +8998,17 @@
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="121"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="72"/>
+      <c r="K9" s="98"/>
       <c r="L9" s="99"/>
       <c r="M9" s="99"/>
       <c r="N9" s="99"/>
@@ -9012,86 +9018,86 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="119"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="103"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="68" t="s">
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="68" t="s">
+      <c r="O11" s="71" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
     </row>
     <row r="13" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
@@ -9101,10 +9107,10 @@
       <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
     </row>
     <row r="14" spans="2:15" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -9431,6 +9437,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="K4:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="K7:O10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -9443,14 +9457,6 @@
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="I11:K12"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="K4:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="K7:O10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9485,94 +9491,94 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="89"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="88"/>
     </row>
     <row r="6" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="92"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="116" t="s">
         <v>276</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
-      <c r="K7" s="96" t="s">
+      <c r="K7" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="98"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="121"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="72"/>
+      <c r="K8" s="98"/>
       <c r="L8" s="99"/>
       <c r="M8" s="99"/>
       <c r="N8" s="99"/>
@@ -9582,17 +9588,17 @@
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="121"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="72"/>
+      <c r="K9" s="98"/>
       <c r="L9" s="99"/>
       <c r="M9" s="99"/>
       <c r="N9" s="99"/>
@@ -9602,86 +9608,86 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="119"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="103"/>
     </row>
     <row r="11" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="68" t="s">
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="68" t="s">
+      <c r="O11" s="71" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
@@ -9691,10 +9697,10 @@
       <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
     </row>
     <row r="14" spans="2:15" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -9866,6 +9872,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="K4:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="K7:O10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -9878,14 +9892,6 @@
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="I11:K12"/>
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="K4:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="K7:O10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9900,7 +9906,7 @@
   <dimension ref="B3:O21"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:O21"/>
+      <selection activeCell="L14" sqref="L14:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9922,203 +9928,203 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="54"/>
       <c r="J4" s="54"/>
-      <c r="K4" s="134" t="s">
+      <c r="K4" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="137"/>
     </row>
     <row r="5" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="130"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="131"/>
       <c r="I5" s="55"/>
       <c r="J5" s="55"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="140"/>
     </row>
     <row r="6" spans="2:15" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="131"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="133"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="134"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="143"/>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="146"/>
       <c r="I7" s="61"/>
       <c r="J7" s="61"/>
-      <c r="K7" s="146" t="s">
+      <c r="K7" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="149"/>
     </row>
     <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="156" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="158"/>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="151"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="152"/>
     </row>
     <row r="9" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="158"/>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="149"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="151"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="152"/>
     </row>
     <row r="10" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="157"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
       <c r="F10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="155"/>
-      <c r="H10" s="157"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="158"/>
       <c r="I10" s="63"/>
       <c r="J10" s="63"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="154"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="155"/>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="120" t="s">
+      <c r="E11" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="120" t="s">
+      <c r="F11" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="120" t="s">
+      <c r="G11" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="120" t="s">
+      <c r="H11" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="68" t="s">
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="68" t="s">
+      <c r="O11" s="71" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
     </row>
     <row r="13" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
       <c r="I13" s="37" t="s">
         <v>242</v>
       </c>
@@ -10128,10 +10134,10 @@
       <c r="K13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
     </row>
     <row r="14" spans="2:15" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
@@ -10164,7 +10170,7 @@
       <c r="K14" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="66"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="33" t="s">
@@ -10181,7 +10187,7 @@
       <c r="D15" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="123" t="s">
+      <c r="E15" s="124" t="s">
         <v>173</v>
       </c>
       <c r="F15" s="23" t="s">
@@ -10202,7 +10208,7 @@
       <c r="K15" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="33" t="s">
@@ -10213,7 +10219,7 @@
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="26"/>
-      <c r="E16" s="124"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="23"/>
       <c r="G16" s="31"/>
       <c r="H16" s="5" t="s">
@@ -10228,7 +10234,7 @@
       <c r="K16" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L16" s="25"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="33" t="s">
@@ -10266,7 +10272,7 @@
       <c r="K17" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L17" s="25"/>
+      <c r="L17" s="66"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="33" t="s">
@@ -10304,7 +10310,7 @@
       <c r="K18" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L18" s="25"/>
+      <c r="L18" s="66"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
       <c r="O18" s="33" t="s">
@@ -10321,7 +10327,7 @@
       <c r="D19" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="123" t="s">
+      <c r="E19" s="124" t="s">
         <v>176</v>
       </c>
       <c r="F19" s="23" t="s">
@@ -10342,7 +10348,7 @@
       <c r="K19" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L19" s="25"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="33" t="s">
@@ -10353,7 +10359,7 @@
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="124"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="23"/>
       <c r="G20" s="22"/>
       <c r="H20" s="5" t="s">
@@ -10368,7 +10374,7 @@
       <c r="K20" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L20" s="25"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="33" t="s">
@@ -10406,7 +10412,7 @@
       <c r="K21" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="L21" s="25"/>
+      <c r="L21" s="66"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="33" t="s">
@@ -10415,6 +10421,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="I11:K12"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B4:H6"/>
@@ -10431,12 +10443,6 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="I11:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
+++ b/Documentos proyecto San Ambiente/Fase2/Casos de Prueba/Casos de prueba plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanAmbiente\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase2\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B9CEC2-E089-4656-BB31-1C28671D4F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025FE369-7DEE-46C8-8051-B17E93715061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="CU10" sheetId="6" r:id="rId5"/>
     <sheet name="CU6" sheetId="7" r:id="rId6"/>
     <sheet name="CU7" sheetId="8" r:id="rId7"/>
-    <sheet name="CU12" sheetId="9" r:id="rId8"/>
+    <sheet name="CU12 PENDIENTE" sheetId="9" r:id="rId8"/>
     <sheet name="CU5" sheetId="10" r:id="rId9"/>
     <sheet name="CU1" sheetId="11" r:id="rId10"/>
     <sheet name="CU9" sheetId="13" r:id="rId11"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="322">
   <si>
     <t>EJECUCION DE PRUEBAS</t>
   </si>
@@ -1419,9 +1419,6 @@
     <t>CU11</t>
   </si>
   <si>
-    <t>Validar Usuario (Tabla Parametro)</t>
-  </si>
-  <si>
     <t xml:space="preserve">El usuario ingresará a la pantalla login, el sistema deberá ingresar y cargar todo el contenido en un tiempo mínimo de 5 segundo. </t>
   </si>
   <si>
@@ -2264,6 +2261,30 @@
   </si>
   <si>
     <t>SOLO SE REALIZARON 2 ITERACIONES</t>
+  </si>
+  <si>
+    <t>Al momento de ingresar una cantidad de 50 caracteres en los campos nombre mantenimiento y observacion, el aplicativo permite seguir el curso normal</t>
+  </si>
+  <si>
+    <t>Cuando se ingresan valores numericos en el campo nombre mantenimiento el aplicativo permite seguir el curso normal, cuando no deberia de hacerlo</t>
+  </si>
+  <si>
+    <t>Al momento de seleccionar la lista de mantenimiento el aplicativo las carga correctamente</t>
+  </si>
+  <si>
+    <t>Al momento de seleccionar la estacion, se muestra la informacion almacenada anteriormente</t>
+  </si>
+  <si>
+    <t>Se valida que al momento de presionar el boton conectar, y si los campos obligatorios no estan completos se activan alertas</t>
+  </si>
+  <si>
+    <t>Al momento de seleccionar la estacion y realizar la conexión por ftp, se establece conexión con la estacion</t>
+  </si>
+  <si>
+    <t>Se valida que la conexión por FTP se realiza con éxito</t>
+  </si>
+  <si>
+    <t>Validar Usuario (Tabla Parametro) PENDIENTE</t>
   </si>
 </sst>
 </file>
@@ -2902,6 +2923,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2911,6 +2935,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2983,18 +3019,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3028,15 +3058,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3061,6 +3082,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3165,15 +3195,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3490,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3515,220 +3536,220 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="83" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="88"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="93"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="91"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="96"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="95" t="s">
-        <v>230</v>
-      </c>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="102"/>
     </row>
     <row r="8" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="100"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="104"/>
     </row>
     <row r="9" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="104"/>
     </row>
     <row r="10" spans="2:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="103"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="106"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="P11" s="78"/>
+    </row>
+    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+    </row>
+    <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="113" t="s">
-        <v>246</v>
-      </c>
-      <c r="P11" s="113"/>
-    </row>
-    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-    </row>
-    <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
@@ -3744,8 +3765,8 @@
       <c r="L14" s="59"/>
       <c r="M14" s="59"/>
       <c r="N14" s="39"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
@@ -3761,8 +3782,8 @@
       <c r="L15" s="59"/>
       <c r="M15" s="59"/>
       <c r="N15" s="39"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
@@ -3778,8 +3799,8 @@
       <c r="L16" s="59"/>
       <c r="M16" s="59"/>
       <c r="N16" s="39"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
     </row>
     <row r="17" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
@@ -3795,8 +3816,8 @@
       <c r="L17" s="59"/>
       <c r="M17" s="59"/>
       <c r="N17" s="39"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
@@ -3812,8 +3833,8 @@
       <c r="L18" s="59"/>
       <c r="M18" s="59"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
@@ -3829,8 +3850,8 @@
       <c r="L19" s="59"/>
       <c r="M19" s="59"/>
       <c r="N19" s="33"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="115"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
@@ -3846,8 +3867,8 @@
       <c r="L20" s="59"/>
       <c r="M20" s="59"/>
       <c r="N20" s="33"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
@@ -3863,23 +3884,11 @@
       <c r="L21" s="59"/>
       <c r="M21" s="59"/>
       <c r="N21" s="33"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:P13"/>
-    <mergeCell ref="O14:P14"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="B4:K6"/>
     <mergeCell ref="L4:P6"/>
@@ -3896,6 +3905,18 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3904,10 +3925,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC56C1B5-61AC-414C-89B9-0AFDA14EAE32}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="C3:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:I8"/>
+    <sheetView topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,68 +3949,68 @@
     <col min="13" max="13" width="4.42578125" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" customWidth="1"/>
     <col min="15" max="15" width="7.42578125" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="16" max="16" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="81"/>
       <c r="J4" s="46"/>
       <c r="K4" s="46"/>
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="3:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="88"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="93"/>
     </row>
     <row r="6" spans="3:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="80"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="82"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="91"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="96"/>
     </row>
     <row r="7" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="117"/>
       <c r="F7" s="117"/>
@@ -3995,20 +4019,20 @@
       <c r="I7" s="118"/>
       <c r="J7" s="51"/>
       <c r="K7" s="51"/>
-      <c r="L7" s="95" t="s">
+      <c r="L7" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="97"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="102"/>
     </row>
     <row r="8" spans="3:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="119" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
@@ -4017,11 +4041,11 @@
       <c r="I8" s="121"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="100"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="104"/>
     </row>
     <row r="9" spans="3:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="28" t="s">
@@ -4037,19 +4061,19 @@
       <c r="I9" s="121"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="104"/>
     </row>
     <row r="10" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4057,240 +4081,292 @@
       <c r="I10" s="123"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="103"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="106"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="113" t="s">
+      <c r="J11" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="71" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="L13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="L13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
     </row>
     <row r="14" spans="3:16" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="3:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L14" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="I15" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="16" spans="3:16" ht="127.5" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="H16" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="3:16" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="I16" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="90" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="G17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="I17" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L17" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="18" spans="3:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="G18" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="I18" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="L4:P6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="L7:P10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="P11:P13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -4303,6 +4379,14 @@
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="J11:L12"/>
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="L4:P6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="L7:P10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4316,8 +4400,8 @@
   </sheetPr>
   <dimension ref="B5:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4339,59 +4423,59 @@
   <sheetData>
     <row r="5" spans="2:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="46"/>
-      <c r="J6" s="83" t="s">
+      <c r="J6" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="90"/>
     </row>
     <row r="7" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="47"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="88"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="93"/>
     </row>
     <row r="8" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="48"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="91"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="96"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="75" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="163"/>
@@ -4401,37 +4485,37 @@
       <c r="G9" s="163"/>
       <c r="H9" s="164"/>
       <c r="I9" s="49"/>
-      <c r="J9" s="113" t="s">
+      <c r="J9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="103"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="106"/>
       <c r="I10" s="50"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" s="120"/>
       <c r="E11" s="120"/>
@@ -4439,19 +4523,19 @@
       <c r="G11" s="120"/>
       <c r="H11" s="121"/>
       <c r="I11" s="53"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
     </row>
     <row r="12" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="119" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D12" s="120"/>
       <c r="E12" s="120"/>
@@ -4459,12 +4543,12 @@
       <c r="G12" s="120"/>
       <c r="H12" s="121"/>
       <c r="I12" s="53"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
     </row>
     <row r="13" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
@@ -4479,12 +4563,12 @@
       <c r="G13" s="120"/>
       <c r="H13" s="121"/>
       <c r="I13" s="53"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
     </row>
     <row r="14" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -4499,21 +4583,21 @@
       <c r="G14" s="166"/>
       <c r="H14" s="167"/>
       <c r="I14" s="58"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
     </row>
     <row r="15" spans="2:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="78" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="162" t="s">
@@ -4528,98 +4612,98 @@
       <c r="H15" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="113" t="s">
-        <v>241</v>
-      </c>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113" t="s">
+      <c r="I15" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="113" t="s">
+      <c r="M15" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="113" t="s">
-        <v>246</v>
+      <c r="O15" s="78" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="162"/>
       <c r="F16" s="162"/>
       <c r="G16" s="162"/>
       <c r="H16" s="162"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="113"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="78"/>
     </row>
     <row r="17" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="162"/>
       <c r="F17" s="162"/>
       <c r="G17" s="162"/>
       <c r="H17" s="162"/>
       <c r="I17" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="J17" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="K17" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="K17" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="113"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="78"/>
     </row>
     <row r="18" spans="2:15" ht="165" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>295</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>296</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L18" s="68"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="293.25" x14ac:dyDescent="0.25">
@@ -4627,10 +4711,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>95</v>
@@ -4642,22 +4726,22 @@
         <v>32</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I19" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J19" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L19" s="68"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="331.5" x14ac:dyDescent="0.25">
@@ -4665,10 +4749,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>93</v>
@@ -4680,22 +4764,22 @@
         <v>29</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L20" s="68"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="204" x14ac:dyDescent="0.25">
@@ -4703,7 +4787,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>34</v>
@@ -4718,22 +4802,22 @@
         <v>36</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K21" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L21" s="69"/>
       <c r="M21" s="68"/>
       <c r="N21" s="6"/>
       <c r="O21" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="127.5" x14ac:dyDescent="0.25">
@@ -4741,7 +4825,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>80</v>
@@ -4756,22 +4840,22 @@
         <v>40</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I22" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J22" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K22" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L22" s="68"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="127.5" x14ac:dyDescent="0.25">
@@ -4779,7 +4863,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>38</v>
@@ -4794,22 +4878,22 @@
         <v>83</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J23" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K23" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L23" s="68"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="127.5" x14ac:dyDescent="0.25">
@@ -4817,7 +4901,7 @@
         <v>37</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>39</v>
@@ -4832,22 +4916,22 @@
         <v>85</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I24" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J24" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K24" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L24" s="68"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="89.25" x14ac:dyDescent="0.25">
@@ -4855,7 +4939,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>86</v>
@@ -4870,31 +4954,26 @@
         <v>87</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I25" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J25" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K25" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L25" s="68"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="N15:N17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="B6:H8"/>
     <mergeCell ref="J6:O8"/>
@@ -4911,6 +4990,11 @@
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="H15:H17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="N15:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4950,59 +5034,59 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="83" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="88"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="93"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="91"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="96"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
@@ -5019,20 +5103,20 @@
       <c r="I7" s="168"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
-      <c r="L7" s="95" t="s">
-        <v>230</v>
-      </c>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="97"/>
+      <c r="L7" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="102"/>
     </row>
     <row r="8" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="168" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="168"/>
       <c r="E8" s="168"/>
@@ -5042,11 +5126,11 @@
       <c r="I8" s="168"/>
       <c r="J8" s="168"/>
       <c r="K8" s="168"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="100"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="104"/>
     </row>
     <row r="9" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
@@ -5063,151 +5147,151 @@
       <c r="I9" s="168"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="104"/>
     </row>
     <row r="10" spans="2:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="169"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="112"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
       <c r="F10" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="103"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="106"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="P11" s="78"/>
+    </row>
+    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+    </row>
+    <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="113" t="s">
-        <v>246</v>
-      </c>
-      <c r="P11" s="113"/>
-    </row>
-    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-    </row>
-    <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
     </row>
     <row r="14" spans="2:16" ht="135" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>303</v>
-      </c>
       <c r="E14" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="I14" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L14" s="68"/>
       <c r="M14" s="59"/>
       <c r="N14" s="39"/>
       <c r="O14" s="33"/>
       <c r="P14" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="210" customHeight="1" x14ac:dyDescent="0.25">
@@ -5215,13 +5299,13 @@
         <v>22</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>94</v>
@@ -5230,23 +5314,23 @@
         <v>32</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J15" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L15" s="68"/>
       <c r="M15" s="59"/>
       <c r="N15" s="39"/>
       <c r="O15" s="33"/>
       <c r="P15" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="242.25" x14ac:dyDescent="0.25">
@@ -5254,13 +5338,13 @@
         <v>22</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>94</v>
@@ -5269,23 +5353,23 @@
         <v>29</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J16" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K16" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L16" s="68"/>
       <c r="M16" s="59"/>
       <c r="N16" s="39"/>
       <c r="O16" s="33"/>
       <c r="P16" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="180" x14ac:dyDescent="0.25">
@@ -5293,7 +5377,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>34</v>
@@ -5308,23 +5392,23 @@
         <v>36</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L17" s="68"/>
       <c r="M17" s="59"/>
       <c r="N17" s="39"/>
       <c r="O17" s="33"/>
       <c r="P17" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="89.25" x14ac:dyDescent="0.25">
@@ -5332,7 +5416,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>80</v>
@@ -5347,23 +5431,23 @@
         <v>40</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L18" s="68"/>
       <c r="M18" s="59"/>
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
       <c r="P18" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="102" x14ac:dyDescent="0.25">
@@ -5371,7 +5455,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>38</v>
@@ -5386,23 +5470,23 @@
         <v>83</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I19" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J19" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L19" s="68"/>
       <c r="M19" s="59"/>
       <c r="N19" s="33"/>
       <c r="O19" s="33"/>
       <c r="P19" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="89.25" x14ac:dyDescent="0.25">
@@ -5410,7 +5494,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>39</v>
@@ -5425,23 +5509,23 @@
         <v>85</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L20" s="68"/>
       <c r="M20" s="59"/>
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
       <c r="P20" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="63.75" x14ac:dyDescent="0.25">
@@ -5449,7 +5533,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>86</v>
@@ -5464,27 +5548,35 @@
         <v>87</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J21" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L21" s="68"/>
       <c r="M21" s="59"/>
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
       <c r="P21" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:K6"/>
+    <mergeCell ref="L4:P6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:P10"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="O11:P13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -5497,14 +5589,6 @@
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
-    <mergeCell ref="B4:K6"/>
-    <mergeCell ref="L4:P6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:P10"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5515,14 +5599,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD7BD3-B24E-47ED-8D02-DE5556966992}">
   <dimension ref="C3:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
@@ -5537,116 +5621,116 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="83" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="88"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="80"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="91"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="96"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="116" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E7" s="117"/>
       <c r="F7" s="117"/>
       <c r="G7" s="117"/>
       <c r="H7" s="117"/>
       <c r="I7" s="118"/>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="97"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="102"/>
     </row>
     <row r="8" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="119" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
       <c r="G8" s="120"/>
       <c r="H8" s="120"/>
       <c r="I8" s="121"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="100"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="104"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9" s="120"/>
       <c r="F9" s="120"/>
       <c r="G9" s="120"/>
       <c r="H9" s="120"/>
       <c r="I9" s="121"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="100"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="104"/>
     </row>
     <row r="10" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="107" t="s">
-        <v>286</v>
-      </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
+      <c r="D10" s="110" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
@@ -5654,99 +5738,99 @@
         <v>43779</v>
       </c>
       <c r="I10" s="123"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="103"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="106"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="71" t="s">
+      <c r="K11" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="71" t="s">
+      <c r="M11" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="71" t="s">
+      <c r="N11" s="72" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
     </row>
     <row r="14" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G14" s="23" t="s">
+      <c r="H14" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>217</v>
-      </c>
       <c r="I14" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J14" s="66"/>
       <c r="K14" s="25"/>
@@ -5756,25 +5840,25 @@
     </row>
     <row r="15" spans="3:14" ht="90" x14ac:dyDescent="0.25">
       <c r="C15" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>217</v>
-      </c>
       <c r="I15" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J15" s="66"/>
       <c r="K15" s="25"/>
@@ -5784,25 +5868,25 @@
     </row>
     <row r="16" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="23" t="s">
+      <c r="H16" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>217</v>
-      </c>
       <c r="I16" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J16" s="66"/>
       <c r="K16" s="25"/>
@@ -5812,25 +5896,25 @@
     </row>
     <row r="17" spans="3:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="23" t="s">
+      <c r="H17" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>217</v>
-      </c>
       <c r="I17" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J17" s="66"/>
       <c r="K17" s="25"/>
@@ -5840,25 +5924,25 @@
     </row>
     <row r="18" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E18" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="G18" s="23" t="s">
+      <c r="H18" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>217</v>
-      </c>
       <c r="I18" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J18" s="66"/>
       <c r="K18" s="25"/>
@@ -5868,25 +5952,25 @@
     </row>
     <row r="19" spans="3:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E19" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="23" t="s">
+      <c r="H19" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>217</v>
-      </c>
       <c r="I19" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J19" s="66"/>
       <c r="K19" s="25"/>
@@ -5896,22 +5980,22 @@
     </row>
     <row r="20" spans="3:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" s="23" t="s">
+      <c r="H20" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="66"/>
@@ -5922,22 +6006,22 @@
     </row>
     <row r="21" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="66"/>
@@ -5948,22 +6032,22 @@
     </row>
     <row r="22" spans="3:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="23" t="s">
+      <c r="H22" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="66"/>
@@ -5974,6 +6058,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:N10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -5986,14 +6078,6 @@
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="M11:M13"/>
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="J4:N6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:N10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6007,8 +6091,8 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6032,275 +6116,275 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="83" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="88"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="93"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="91"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="96"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="95" t="s">
-        <v>230</v>
-      </c>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="97"/>
+      <c r="C7" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="102"/>
     </row>
     <row r="8" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="100"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="104"/>
     </row>
     <row r="9" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="104"/>
     </row>
     <row r="10" spans="2:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
+      <c r="C10" s="110" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="110">
+      <c r="G10" s="113">
         <v>43778</v>
       </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="103"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="106"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="P11" s="78"/>
+    </row>
+    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+    </row>
+    <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="113" t="s">
-        <v>246</v>
-      </c>
-      <c r="P11" s="113"/>
-    </row>
-    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-    </row>
-    <row r="13" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
     </row>
     <row r="14" spans="2:16" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>248</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>249</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M14" s="33"/>
       <c r="N14" s="39"/>
-      <c r="O14" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="P14" s="115"/>
+      <c r="O14" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="P14" s="71"/>
     </row>
     <row r="15" spans="2:16" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>41</v>
@@ -6318,30 +6402,30 @@
         <v>32</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="39"/>
-      <c r="O15" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="P15" s="115"/>
+      <c r="O15" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="P15" s="71"/>
     </row>
     <row r="16" spans="2:16" ht="210" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>41</v>
@@ -6350,7 +6434,7 @@
         <v>31</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>28</v>
@@ -6359,30 +6443,30 @@
         <v>29</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="39"/>
-      <c r="O16" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="P16" s="115"/>
+      <c r="O16" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="P16" s="71"/>
     </row>
     <row r="17" spans="2:16" ht="180" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>41</v>
@@ -6397,68 +6481,68 @@
         <v>33</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K17" s="33"/>
       <c r="L17" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N17" s="39"/>
-      <c r="O17" s="115" t="s">
-        <v>253</v>
-      </c>
-      <c r="P17" s="115"/>
+      <c r="O17" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="71"/>
     </row>
     <row r="18" spans="2:16" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="42" t="s">
         <v>218</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="L18" s="42" t="s">
-        <v>219</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="P18" s="115"/>
+      <c r="O18" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="P18" s="71"/>
     </row>
     <row r="19" spans="2:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
@@ -6468,38 +6552,38 @@
         <v>41</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="I19" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
-      <c r="O19" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="P19" s="115"/>
+      <c r="O19" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="P19" s="71"/>
     </row>
     <row r="20" spans="2:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
@@ -6509,38 +6593,38 @@
         <v>41</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
-      <c r="O20" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="P20" s="115"/>
+      <c r="O20" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="P20" s="71"/>
     </row>
     <row r="21" spans="2:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
@@ -6550,10 +6634,10 @@
         <v>41</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>44</v>
@@ -6562,36 +6646,42 @@
         <v>46</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
-      <c r="O21" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="P21" s="115"/>
+      <c r="O21" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="P21" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="L4:P6"/>
+    <mergeCell ref="L7:P10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B4:K6"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="L11:L13"/>
@@ -6600,19 +6690,13 @@
     <mergeCell ref="O11:P13"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
-    <mergeCell ref="L4:P6"/>
-    <mergeCell ref="L7:P10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B4:K6"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6627,8 +6711,8 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:P6"/>
+    <sheetView topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6653,66 +6737,66 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="83" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="88"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="93"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="91"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="96"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="116" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D7" s="117"/>
       <c r="E7" s="117"/>
@@ -6722,13 +6806,13 @@
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
-      <c r="L7" s="95" t="s">
+      <c r="L7" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="97"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="102"/>
     </row>
     <row r="8" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -6745,11 +6829,11 @@
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="100"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="104"/>
     </row>
     <row r="9" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -6766,19 +6850,19 @@
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="104"/>
     </row>
     <row r="10" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -6787,137 +6871,137 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="103"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="106"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="P11" s="78"/>
+    </row>
+    <row r="12" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+    </row>
+    <row r="13" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="113" t="s">
-        <v>246</v>
-      </c>
-      <c r="P11" s="113"/>
-    </row>
-    <row r="12" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-    </row>
-    <row r="13" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
     </row>
     <row r="14" spans="2:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>254</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>255</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="I14" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="P14" s="115"/>
+      <c r="O14" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="P14" s="71"/>
     </row>
     <row r="15" spans="2:16" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>48</v>
@@ -6935,30 +7019,30 @@
         <v>32</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
-      <c r="O15" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="P15" s="115"/>
+      <c r="O15" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="P15" s="71"/>
     </row>
     <row r="16" spans="2:16" ht="229.5" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>48</v>
@@ -6967,7 +7051,7 @@
         <v>53</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>28</v>
@@ -6976,32 +7060,32 @@
         <v>29</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K16" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M16" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N16" s="33"/>
-      <c r="O16" s="115" t="s">
-        <v>253</v>
-      </c>
-      <c r="P16" s="115"/>
+      <c r="O16" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="P16" s="71"/>
     </row>
     <row r="17" spans="2:16" ht="180" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>48</v>
@@ -7019,65 +7103,65 @@
         <v>36</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K17" s="44"/>
       <c r="L17" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N17" s="33"/>
-      <c r="O17" s="115" t="s">
-        <v>253</v>
-      </c>
-      <c r="P17" s="115"/>
+      <c r="O17" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="71"/>
     </row>
     <row r="18" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L18" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="P18" s="115"/>
+      <c r="O18" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="P18" s="71"/>
     </row>
     <row r="19" spans="2:16" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
@@ -7090,35 +7174,35 @@
         <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
-      <c r="O19" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="P19" s="115"/>
+      <c r="O19" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="P19" s="71"/>
     </row>
     <row r="20" spans="2:16" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
@@ -7131,7 +7215,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>43</v>
@@ -7140,26 +7224,26 @@
         <v>50</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
-      <c r="O20" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="P20" s="115"/>
+      <c r="O20" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="P20" s="71"/>
     </row>
     <row r="21" spans="2:16" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
@@ -7172,7 +7256,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>44</v>
@@ -7181,29 +7265,41 @@
         <v>51</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
-      <c r="O21" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="P21" s="115"/>
+      <c r="O21" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="P21" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="O11:P13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
@@ -7220,18 +7316,6 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="O11:P13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="I11:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7241,10 +7325,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF69378-5C9E-410A-9F24-6A5C43D39D40}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="B3:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H8"/>
+    <sheetView topLeftCell="A22" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7253,7 +7340,7 @@
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="27.85546875" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
@@ -7261,68 +7348,68 @@
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" customWidth="1"/>
     <col min="13" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="46"/>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="85"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="88"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="93"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
       <c r="I6" s="48"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="91"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="96"/>
     </row>
     <row r="7" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="116" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D7" s="117"/>
       <c r="E7" s="117"/>
@@ -7330,14 +7417,14 @@
       <c r="G7" s="117"/>
       <c r="H7" s="118"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="97"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="102"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -7352,12 +7439,12 @@
       <c r="G8" s="120"/>
       <c r="H8" s="121"/>
       <c r="I8" s="52"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="100"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="104"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -7372,110 +7459,110 @@
       <c r="G9" s="120"/>
       <c r="H9" s="121"/>
       <c r="I9" s="52"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="100"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="104"/>
     </row>
     <row r="10" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="122"/>
       <c r="H10" s="123"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="103"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="106"/>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="71" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
     </row>
     <row r="14" spans="2:15" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
@@ -7496,14 +7583,26 @@
       <c r="G14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="H14" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>218</v>
+      </c>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="O14" s="33" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="15" spans="2:15" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
@@ -7524,14 +7623,26 @@
       <c r="G15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="H15" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>218</v>
+      </c>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="O15" s="33" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="16" spans="2:15" ht="255" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
@@ -7552,14 +7663,26 @@
       <c r="G16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="H16" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>218</v>
+      </c>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="O16" s="33" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="17" spans="2:15" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
@@ -7580,14 +7703,26 @@
       <c r="G17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="H17" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>218</v>
+      </c>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="O17" s="33" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="18" spans="2:15" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
@@ -7608,14 +7743,26 @@
       <c r="G18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="H18" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="I18" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>218</v>
+      </c>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="O18" s="33" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="19" spans="2:15" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
@@ -7636,14 +7783,26 @@
       <c r="G19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="H19" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I19" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>218</v>
+      </c>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
+      <c r="O19" s="33" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="20" spans="2:15" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
@@ -7664,14 +7823,26 @@
       <c r="G20" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="H20" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>218</v>
+      </c>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
+      <c r="O20" s="33" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="21" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
@@ -7692,24 +7863,29 @@
       <c r="G21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="H21" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>218</v>
+      </c>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
+      <c r="O21" s="33" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="J7:O10"/>
-    <mergeCell ref="J4:O6"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:O13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="B4:H6"/>
@@ -7723,6 +7899,13 @@
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="H11:H13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="J7:O10"/>
+    <mergeCell ref="J4:O6"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:O13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7736,7 +7919,7 @@
   </sheetPr>
   <dimension ref="B3:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
@@ -7759,63 +7942,63 @@
   <sheetData>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="85"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="2:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="88"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="93"/>
     </row>
     <row r="6" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="91"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="96"/>
     </row>
     <row r="7" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="116" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="117"/>
       <c r="E7" s="117"/>
@@ -7824,13 +8007,13 @@
       <c r="H7" s="118"/>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="97"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="102"/>
     </row>
     <row r="8" spans="2:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -7846,11 +8029,11 @@
       <c r="H8" s="121"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="100"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="104"/>
     </row>
     <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -7866,19 +8049,19 @@
       <c r="H9" s="121"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="100"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="104"/>
     </row>
     <row r="10" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -7886,89 +8069,89 @@
       <c r="H10" s="123"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="103"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="106"/>
     </row>
     <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="71" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
     </row>
     <row r="14" spans="2:19" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -7990,25 +8173,25 @@
         <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L14" s="66"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8031,22 +8214,22 @@
         <v>32</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L15" s="66"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="300.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8069,22 +8252,22 @@
         <v>29</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L16" s="66"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8107,18 +8290,18 @@
         <v>36</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K17" s="33"/>
       <c r="L17" s="67"/>
       <c r="M17" s="66"/>
       <c r="N17" s="25"/>
       <c r="O17" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8141,22 +8324,22 @@
         <v>40</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L18" s="66"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
       <c r="O18" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="129" customHeight="1" x14ac:dyDescent="0.25">
@@ -8179,22 +8362,22 @@
         <v>83</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L19" s="66"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8217,22 +8400,22 @@
         <v>85</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L20" s="66"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8255,33 +8438,31 @@
         <v>87</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L21" s="66"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:O13"/>
     <mergeCell ref="B4:H6"/>
     <mergeCell ref="K4:O6"/>
     <mergeCell ref="C7:H7"/>
@@ -8290,11 +8471,13 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8308,7 +8491,7 @@
   </sheetPr>
   <dimension ref="B3:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -8331,56 +8514,56 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="83" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="85"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="88"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="93"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="91"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="96"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -8396,13 +8579,13 @@
       <c r="H7" s="118"/>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="97"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="102"/>
     </row>
     <row r="8" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -8418,11 +8601,11 @@
       <c r="H8" s="121"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="100"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="104"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -8438,19 +8621,19 @@
       <c r="H9" s="121"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="100"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="104"/>
     </row>
     <row r="10" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -8458,89 +8641,89 @@
       <c r="H10" s="123"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="103"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="106"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+    </row>
+    <row r="13" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="71" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-    </row>
-    <row r="13" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
     </row>
     <row r="14" spans="2:15" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -8562,22 +8745,22 @@
         <v>103</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L14" s="66"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="280.5" x14ac:dyDescent="0.25">
@@ -8600,22 +8783,22 @@
         <v>32</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L15" s="66"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8638,22 +8821,22 @@
         <v>29</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L16" s="66"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8676,18 +8859,18 @@
         <v>36</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K17" s="33"/>
       <c r="L17" s="67"/>
       <c r="M17" s="66"/>
       <c r="N17" s="25"/>
       <c r="O17" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="153" customHeight="1" x14ac:dyDescent="0.25">
@@ -8710,22 +8893,22 @@
         <v>40</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L18" s="66"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
       <c r="O18" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8748,22 +8931,22 @@
         <v>110</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L19" s="66"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8786,22 +8969,22 @@
         <v>111</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L20" s="66"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -8824,34 +9007,26 @@
         <v>113</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L21" s="66"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K4:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="K7:O10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B4:J6"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -8864,6 +9039,14 @@
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="I11:K12"/>
+    <mergeCell ref="K4:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="K7:O10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B4:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8878,7 +9061,7 @@
   <dimension ref="B3:O24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H19"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8901,56 +9084,56 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="85"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="88"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="93"/>
     </row>
     <row r="6" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="91"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="96"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -8966,13 +9149,13 @@
       <c r="H7" s="118"/>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="97"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="102"/>
     </row>
     <row r="8" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -8988,11 +9171,11 @@
       <c r="H8" s="121"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="100"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="104"/>
     </row>
     <row r="9" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -9008,19 +9191,19 @@
       <c r="H9" s="121"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="100"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="104"/>
     </row>
     <row r="10" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -9028,89 +9211,89 @@
       <c r="H10" s="123"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="103"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="106"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+    </row>
+    <row r="13" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="71" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-    </row>
-    <row r="13" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
     </row>
     <row r="14" spans="2:15" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -9132,24 +9315,24 @@
         <v>122</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="280.5" x14ac:dyDescent="0.25">
@@ -9172,24 +9355,24 @@
         <v>32</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J15" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="382.5" x14ac:dyDescent="0.25">
@@ -9212,24 +9395,24 @@
         <v>29</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J16" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K16" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="270.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9252,24 +9435,24 @@
         <v>36</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9292,24 +9475,24 @@
         <v>40</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L18" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
       <c r="O18" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9332,24 +9515,24 @@
         <v>127</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I19" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J19" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9372,24 +9555,24 @@
         <v>129</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9412,24 +9595,24 @@
         <v>131</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J21" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -9437,14 +9620,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="K4:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="K7:O10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -9457,6 +9632,14 @@
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="I11:K12"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="K4:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="K7:O10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9466,10 +9649,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ED4A39-E2C2-40A4-A2EF-E325FC0589EC}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="B3:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9491,63 +9677,63 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="85"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="88"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="93"/>
     </row>
     <row r="6" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="91"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="96"/>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D7" s="117"/>
       <c r="E7" s="117"/>
@@ -9556,20 +9742,20 @@
       <c r="H7" s="118"/>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="97"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="102"/>
     </row>
     <row r="8" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="119" t="s">
-        <v>141</v>
+        <v>321</v>
       </c>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
@@ -9578,11 +9764,11 @@
       <c r="H8" s="121"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="100"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="104"/>
     </row>
     <row r="9" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -9598,19 +9784,19 @@
       <c r="H9" s="121"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="100"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="104"/>
     </row>
     <row r="10" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -9618,108 +9804,108 @@
       <c r="H10" s="123"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="103"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="106"/>
     </row>
     <row r="11" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="71" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
     </row>
     <row r="14" spans="2:15" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -9735,19 +9921,19 @@
         <v>22</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="E15" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -9763,16 +9949,16 @@
         <v>22</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>124</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>29</v>
@@ -9791,19 +9977,19 @@
         <v>22</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -9816,22 +10002,22 @@
     </row>
     <row r="18" spans="2:15" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>126</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -9844,22 +10030,22 @@
     </row>
     <row r="19" spans="2:15" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
@@ -9872,14 +10058,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:H6"/>
-    <mergeCell ref="K4:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="K7:O10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -9892,6 +10070,14 @@
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="I11:K12"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="K4:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="K7:O10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9905,7 +10091,7 @@
   </sheetPr>
   <dimension ref="B3:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="L14" sqref="L14:L21"/>
     </sheetView>
   </sheetViews>
@@ -9928,253 +10114,253 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="131"/>
       <c r="I4" s="54"/>
       <c r="J4" s="54"/>
-      <c r="K4" s="135" t="s">
+      <c r="K4" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="137"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="140"/>
     </row>
     <row r="5" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="129"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="134"/>
       <c r="I5" s="55"/>
       <c r="J5" s="55"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="140"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="143"/>
     </row>
     <row r="6" spans="2:15" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="132"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="134"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="137"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="143"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="146"/>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="146"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="149"/>
       <c r="I7" s="61"/>
       <c r="J7" s="61"/>
-      <c r="K7" s="147" t="s">
+      <c r="K7" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="149"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="152"/>
     </row>
     <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="156" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="158"/>
+      <c r="C8" s="159" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="161"/>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="152"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="155"/>
     </row>
     <row r="9" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="158"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="161"/>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="152"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="155"/>
     </row>
     <row r="10" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="161"/>
       <c r="F10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="156"/>
-      <c r="H10" s="158"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="161"/>
       <c r="I10" s="63"/>
       <c r="J10" s="63"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="155"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="158"/>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="159" t="s">
+      <c r="D11" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="159" t="s">
+      <c r="E11" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="159" t="s">
+      <c r="F11" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="159" t="s">
+      <c r="G11" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="159" t="s">
+      <c r="H11" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+    </row>
+    <row r="13" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="71" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="160"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-    </row>
-    <row r="13" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="37" t="s">
+      <c r="J13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
     </row>
     <row r="14" spans="2:15" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L14" s="66"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10182,63 +10368,63 @@
         <v>22</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="124" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="127" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>174</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J15" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L15" s="66"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="323.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="26"/>
-      <c r="E16" s="125"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="23"/>
       <c r="G16" s="31"/>
       <c r="H16" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J16" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K16" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L16" s="66"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="242.25" x14ac:dyDescent="0.25">
@@ -10246,37 +10432,37 @@
         <v>22</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L17" s="66"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10284,13 +10470,13 @@
         <v>22</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>33</v>
@@ -10299,22 +10485,22 @@
         <v>36</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L18" s="66"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
       <c r="O18" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10322,13 +10508,13 @@
         <v>37</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="124" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="E19" s="127" t="s">
+        <v>175</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>42</v>
@@ -10337,48 +10523,48 @@
         <v>40</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I19" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J19" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L19" s="66"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="125"/>
+      <c r="E20" s="128"/>
       <c r="F20" s="23"/>
       <c r="G20" s="22"/>
       <c r="H20" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L20" s="66"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="210" customHeight="1" x14ac:dyDescent="0.25">
@@ -10386,47 +10572,41 @@
         <v>37</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J21" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L21" s="66"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="I11:K12"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B4:H6"/>
@@ -10443,6 +10623,12 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="I11:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
